--- a/pert13/21.230.0079-pert13-DBI.xlsx
+++ b/pert13/21.230.0079-pert13-DBI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah S1 SI STMIK\SEMESTER 5\1.1 Visualisasi Data dan Data Sciences\Teori\pert13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696E8267-68AA-46A1-8828-97BEEA83D703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C718C1-ED9C-4C74-9EAB-7A07288156AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8290" firstSheet="2" activeTab="5" xr2:uid="{37BF5E51-D7F7-4509-B11D-29C970469DB2}"/>
+    <workbookView xWindow="1900" yWindow="1790" windowWidth="14400" windowHeight="8290" firstSheet="3" activeTab="5" xr2:uid="{37BF5E51-D7F7-4509-B11D-29C970469DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="kasus" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="57">
   <si>
     <t>DATA</t>
   </si>
@@ -217,6 +217,9 @@
   <si>
     <t>Mulai Perhitungan DBI</t>
   </si>
+  <si>
+    <t>INTERASI 3</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -471,11 +474,298 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,42 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,6 +888,141 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,183 +1354,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="43">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="43">
-        <v>2</v>
-      </c>
-      <c r="C2" s="43">
+      <c r="B2" s="31">
+        <v>2</v>
+      </c>
+      <c r="C2" s="31">
         <v>3</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="43">
-        <v>2</v>
-      </c>
-      <c r="B3" s="43">
-        <v>4</v>
-      </c>
-      <c r="C3" s="43">
-        <v>5</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31">
+        <v>4</v>
+      </c>
+      <c r="C3" s="31">
+        <v>5</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="43">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="31">
         <v>3</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="31">
         <v>6</v>
       </c>
-      <c r="E4" s="46">
-        <v>7</v>
-      </c>
-      <c r="F4" s="46">
-        <v>2</v>
-      </c>
-      <c r="G4" s="46">
+      <c r="E4" s="34">
+        <v>7</v>
+      </c>
+      <c r="F4" s="34">
+        <v>2</v>
+      </c>
+      <c r="G4" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="43">
-        <v>4</v>
-      </c>
-      <c r="B5" s="43">
-        <v>8</v>
-      </c>
-      <c r="C5" s="43">
-        <v>7</v>
-      </c>
-      <c r="E5" s="46">
-        <v>2</v>
-      </c>
-      <c r="F5" s="46">
-        <v>4</v>
-      </c>
-      <c r="G5" s="46">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31">
+        <v>8</v>
+      </c>
+      <c r="C5" s="31">
+        <v>7</v>
+      </c>
+      <c r="E5" s="34">
+        <v>2</v>
+      </c>
+      <c r="F5" s="34">
+        <v>4</v>
+      </c>
+      <c r="G5" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="43">
-        <v>5</v>
-      </c>
-      <c r="B6" s="43">
-        <v>9</v>
-      </c>
-      <c r="C6" s="43">
-        <v>8</v>
-      </c>
-      <c r="E6" s="46">
-        <v>4</v>
-      </c>
-      <c r="F6" s="46">
-        <v>8</v>
-      </c>
-      <c r="G6" s="46">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31">
+        <v>9</v>
+      </c>
+      <c r="C6" s="31">
+        <v>8</v>
+      </c>
+      <c r="E6" s="34">
+        <v>4</v>
+      </c>
+      <c r="F6" s="34">
+        <v>8</v>
+      </c>
+      <c r="G6" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="43">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="43">
-        <v>7</v>
-      </c>
-      <c r="C7" s="43">
-        <v>9</v>
-      </c>
-      <c r="E7" s="46">
-        <v>5</v>
-      </c>
-      <c r="F7" s="46">
-        <v>9</v>
-      </c>
-      <c r="G7" s="46">
+      <c r="B7" s="31">
+        <v>7</v>
+      </c>
+      <c r="C7" s="31">
+        <v>9</v>
+      </c>
+      <c r="E7" s="34">
+        <v>5</v>
+      </c>
+      <c r="F7" s="34">
+        <v>9</v>
+      </c>
+      <c r="G7" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43">
-        <v>7</v>
-      </c>
-      <c r="B8" s="43">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31">
+        <v>2</v>
+      </c>
+      <c r="C8" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="43">
-        <v>8</v>
-      </c>
-      <c r="B9" s="43">
-        <v>5</v>
-      </c>
-      <c r="C9" s="43">
-        <v>4</v>
-      </c>
-      <c r="E9" s="47" t="s">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="31">
+        <v>4</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="43">
-        <v>9</v>
-      </c>
-      <c r="B10" s="43">
-        <v>8</v>
-      </c>
-      <c r="C10" s="43">
-        <v>2</v>
-      </c>
-      <c r="E10" s="50" t="s">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31">
+        <v>8</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2</v>
+      </c>
+      <c r="E10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="43">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="43">
-        <v>9</v>
-      </c>
-      <c r="C11" s="43">
+      <c r="B11" s="31">
+        <v>9</v>
+      </c>
+      <c r="C11" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1155,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872F09F0-3F9D-401D-87CC-33DDD0A80BBB}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1185,381 +1574,381 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="D3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="43">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="43">
-        <v>2</v>
-      </c>
-      <c r="C4" s="43">
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
         <v>3</v>
       </c>
       <c r="D4" s="8">
-        <f>SQRT(($D$23-B4)^2+($E$23-C4)^2)</f>
+        <f t="shared" ref="D4:D13" si="0">SQRT(($D$23-B4)^2+($E$23-C4)^2)</f>
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <f>SQRT(($D$24-B4)^2+($E$24-C4)^2)</f>
+        <f t="shared" ref="E4:E13" si="1">SQRT(($D$24-B4)^2+($E$24-C4)^2)</f>
         <v>2.8284271247461903</v>
       </c>
       <c r="F4" s="8">
-        <f>SQRT(($D$25-B4)^2+($E$25-C4)^2)</f>
+        <f t="shared" ref="F4:F13" si="2">SQRT(($D$25-B4)^2+($E$25-C4)^2)</f>
         <v>7.2111025509279782</v>
       </c>
       <c r="G4" s="8">
         <f>SQRT(($D$26-B4)^2+($E$26-C4)^2)</f>
         <v>8.6023252670426267</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="42">
         <f>MIN(D4:G4)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="55" t="str">
+      <c r="I4" s="43" t="str">
         <f>INDEX($D$3:$G$3, MATCH(MIN(D4:G4), D4:G4, 0))</f>
         <v>C1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="43">
-        <v>2</v>
-      </c>
-      <c r="B5" s="43">
-        <v>4</v>
-      </c>
-      <c r="C5" s="43">
+      <c r="A5" s="31">
+        <v>2</v>
+      </c>
+      <c r="B5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" s="31">
         <v>5</v>
       </c>
       <c r="D5" s="8">
-        <f>SQRT(($D$23-B5)^2+($E$23-C5)^2)</f>
+        <f t="shared" si="0"/>
         <v>3.6055512754639891</v>
       </c>
       <c r="E5" s="8">
-        <f>SQRT(($D$24-B5)^2+($E$24-C5)^2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f>SQRT(($D$25-B5)^2+($E$25-C5)^2)</f>
+        <f t="shared" si="2"/>
         <v>4.4721359549995796</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:G13" si="0">SQRT(($D$26-B5)^2+($E$26-C5)^2)</f>
+        <f t="shared" ref="G5:G13" si="3">SQRT(($D$26-B5)^2+($E$26-C5)^2)</f>
         <v>5.8309518948453007</v>
       </c>
-      <c r="H5" s="54">
-        <f t="shared" ref="H5:H13" si="1">MIN(D5:G5)</f>
+      <c r="H5" s="42">
+        <f t="shared" ref="H5:H13" si="4">MIN(D5:G5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="55" t="str">
-        <f t="shared" ref="I5:I13" si="2">INDEX($D$3:$G$3, MATCH(MIN(D5:G5), D5:G5, 0))</f>
+      <c r="I5" s="43" t="str">
+        <f t="shared" ref="I5:I13" si="5">INDEX($D$3:$G$3, MATCH(MIN(D5:G5), D5:G5, 0))</f>
         <v>C2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="43">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="31">
         <v>6</v>
       </c>
       <c r="D6" s="8">
-        <f>SQRT(($D$23-B6)^2+($E$23-C6)^2)</f>
+        <f t="shared" si="0"/>
         <v>4.1231056256176606</v>
       </c>
       <c r="E6" s="8">
-        <f>SQRT(($D$24-B6)^2+($E$24-C6)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="F6" s="8">
-        <f>SQRT(($D$25-B6)^2+($E$25-C6)^2)</f>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>6.324555320336759</v>
-      </c>
-      <c r="H6" s="54">
         <f t="shared" si="1"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="I6" s="55" t="str">
+      <c r="F6" s="8">
         <f t="shared" si="2"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="3"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="H6" s="42">
+        <f t="shared" si="4"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I6" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="43">
-        <v>4</v>
-      </c>
-      <c r="B7" s="43">
-        <v>8</v>
-      </c>
-      <c r="C7" s="43">
+      <c r="A7" s="31">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31">
+        <v>8</v>
+      </c>
+      <c r="C7" s="31">
         <v>7</v>
       </c>
       <c r="D7" s="8">
-        <f>SQRT(($D$23-B7)^2+($E$23-C7)^2)</f>
+        <f t="shared" si="0"/>
         <v>7.810249675906654</v>
       </c>
       <c r="E7" s="8">
-        <f>SQRT(($D$24-B7)^2+($E$24-C7)^2)</f>
+        <f t="shared" si="1"/>
         <v>4.4721359549995796</v>
       </c>
       <c r="F7" s="8">
-        <f>SQRT(($D$25-B7)^2+($E$25-C7)^2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H7" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31">
+        <v>9</v>
+      </c>
+      <c r="C8" s="31">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="H7" s="54">
+      <c r="G8" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="31">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="31">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="55" t="str">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="2"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" si="4"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I9" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="43">
-        <v>5</v>
-      </c>
-      <c r="B8" s="43">
-        <v>9</v>
-      </c>
-      <c r="C8" s="43">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8">
-        <f>SQRT(($D$23-B8)^2+($E$23-C8)^2)</f>
-        <v>9.2195444572928871</v>
-      </c>
-      <c r="E8" s="8">
-        <f>SQRT(($D$24-B8)^2+($E$24-C8)^2)</f>
-        <v>5.8309518948453007</v>
-      </c>
-      <c r="F8" s="8">
-        <f>SQRT(($D$25-B8)^2+($E$25-C8)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="G8" s="8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="31">
+        <v>7</v>
+      </c>
+      <c r="B10" s="31">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="54">
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>7.810249675906654</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="3"/>
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="H10" s="42">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I8" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="43">
-        <v>6</v>
-      </c>
-      <c r="B9" s="43">
-        <v>7</v>
-      </c>
-      <c r="C9" s="43">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
-        <f>SQRT(($D$23-B9)^2+($E$23-C9)^2)</f>
-        <v>8.6023252670426267</v>
-      </c>
-      <c r="E9" s="8">
-        <f>SQRT(($D$24-B9)^2+($E$24-C9)^2)</f>
-        <v>5</v>
-      </c>
-      <c r="F9" s="8">
-        <f>SQRT(($D$25-B9)^2+($E$25-C9)^2)</f>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="I10" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>8</v>
+      </c>
+      <c r="B11" s="31">
+        <v>5</v>
+      </c>
+      <c r="C11" s="31">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="H9" s="54">
-        <f t="shared" si="1"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="I9" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="43">
-        <v>7</v>
-      </c>
-      <c r="B10" s="43">
-        <v>2</v>
-      </c>
-      <c r="C10" s="43">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
-        <f>SQRT(($D$23-B10)^2+($E$23-C10)^2)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <f>SQRT(($D$24-B10)^2+($E$24-C10)^2)</f>
         <v>3.6055512754639891</v>
       </c>
-      <c r="F10" s="8">
-        <f>SQRT(($D$25-B10)^2+($E$25-C10)^2)</f>
-        <v>7.810249675906654</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>9.2195444572928871</v>
-      </c>
-      <c r="H10" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="43">
-        <v>8</v>
-      </c>
-      <c r="B11" s="43">
-        <v>5</v>
-      </c>
-      <c r="C11" s="43">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
-        <f>SQRT(($D$23-B11)^2+($E$23-C11)^2)</f>
-        <v>3.6055512754639891</v>
-      </c>
       <c r="E11" s="8">
-        <f>SQRT(($D$24-B11)^2+($E$24-C11)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="F11" s="8">
-        <f>SQRT(($D$25-B11)^2+($E$25-C11)^2)</f>
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>5.6568542494923806</v>
-      </c>
-      <c r="H11" s="54">
         <f t="shared" si="1"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="I11" s="55" t="str">
+      <c r="F11" s="8">
         <f t="shared" si="2"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" si="4"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I11" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="43">
-        <v>9</v>
-      </c>
-      <c r="B12" s="43">
-        <v>8</v>
-      </c>
-      <c r="C12" s="43">
+      <c r="A12" s="31">
+        <v>9</v>
+      </c>
+      <c r="B12" s="31">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31">
         <v>2</v>
       </c>
       <c r="D12" s="8">
-        <f>SQRT(($D$23-B12)^2+($E$23-C12)^2)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E12" s="8">
-        <f>SQRT(($D$24-B12)^2+($E$24-C12)^2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F12" s="8">
-        <f>SQRT(($D$25-B12)^2+($E$25-C12)^2)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G12" s="8">
+        <f t="shared" si="3"/>
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="H12" s="42">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="31">
+        <v>10</v>
+      </c>
+      <c r="B13" s="31">
+        <v>9</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
         <v>6.0827625302982193</v>
       </c>
-      <c r="H12" s="54">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I12" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="43">
-        <v>10</v>
-      </c>
-      <c r="B13" s="43">
-        <v>9</v>
-      </c>
-      <c r="C13" s="43">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <f>SQRT(($D$23-B13)^2+($E$23-C13)^2)</f>
-        <v>7.0710678118654755</v>
-      </c>
-      <c r="E13" s="8">
-        <f>SQRT(($D$24-B13)^2+($E$24-C13)^2)</f>
-        <v>6.4031242374328485</v>
-      </c>
-      <c r="F13" s="8">
-        <f>SQRT(($D$25-B13)^2+($E$25-C13)^2)</f>
+      <c r="G13" s="8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H13" s="42">
+        <f t="shared" si="4"/>
         <v>6.0827625302982193</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H13" s="54">
-        <f t="shared" si="1"/>
-        <v>6.0827625302982193</v>
-      </c>
-      <c r="I13" s="55" t="str">
-        <f t="shared" si="2"/>
+      <c r="I13" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C3</v>
       </c>
     </row>
@@ -1590,69 +1979,69 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
-      <c r="C22" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="41" t="s">
+      <c r="C22" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
-      <c r="C23" s="43">
-        <v>7</v>
-      </c>
-      <c r="D23" s="43">
-        <v>2</v>
-      </c>
-      <c r="E23" s="43">
+      <c r="C23" s="31">
+        <v>7</v>
+      </c>
+      <c r="D23" s="31">
+        <v>2</v>
+      </c>
+      <c r="E23" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
-      <c r="C24" s="43">
-        <v>2</v>
-      </c>
-      <c r="D24" s="43">
-        <v>4</v>
-      </c>
-      <c r="E24" s="43">
+      <c r="C24" s="31">
+        <v>2</v>
+      </c>
+      <c r="D24" s="31">
+        <v>4</v>
+      </c>
+      <c r="E24" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
-      <c r="C25" s="43">
-        <v>4</v>
-      </c>
-      <c r="D25" s="43">
-        <v>8</v>
-      </c>
-      <c r="E25" s="43">
+      <c r="C25" s="31">
+        <v>4</v>
+      </c>
+      <c r="D25" s="31">
+        <v>8</v>
+      </c>
+      <c r="E25" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
-      <c r="C26" s="43">
-        <v>5</v>
-      </c>
-      <c r="D26" s="43">
-        <v>9</v>
-      </c>
-      <c r="E26" s="43">
+      <c r="C26" s="31">
+        <v>5</v>
+      </c>
+      <c r="D26" s="31">
+        <v>9</v>
+      </c>
+      <c r="E26" s="31">
         <v>8</v>
       </c>
     </row>
@@ -1660,7 +2049,7 @@
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -1675,44 +2064,44 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
-      <c r="C29" s="43">
+      <c r="C29" s="31">
         <v>1</v>
       </c>
-      <c r="D29" s="43">
-        <v>2</v>
-      </c>
-      <c r="E29" s="43">
+      <c r="D29" s="31">
+        <v>2</v>
+      </c>
+      <c r="E29" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
-      <c r="C30" s="43">
-        <v>7</v>
-      </c>
-      <c r="D30" s="43">
-        <v>2</v>
-      </c>
-      <c r="E30" s="43">
+      <c r="C30" s="31">
+        <v>7</v>
+      </c>
+      <c r="D30" s="31">
+        <v>2</v>
+      </c>
+      <c r="E30" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="45">
         <f>SUM(D29:D30)/COUNT(D29:D30)</f>
         <v>2</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="45">
         <f>SUM(E29:E30)/COUNT(E29:E30)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="18" t="s">
@@ -1727,68 +2116,68 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
-      <c r="C33" s="43">
-        <v>2</v>
-      </c>
-      <c r="D33" s="43">
-        <v>4</v>
-      </c>
-      <c r="E33" s="43">
+      <c r="C33" s="31">
+        <v>2</v>
+      </c>
+      <c r="D33" s="31">
+        <v>4</v>
+      </c>
+      <c r="E33" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
-      <c r="C34" s="43">
+      <c r="C34" s="31">
         <v>3</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="31">
         <v>3</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
-      <c r="C35" s="43">
-        <v>8</v>
-      </c>
-      <c r="D35" s="43">
-        <v>5</v>
-      </c>
-      <c r="E35" s="43">
+      <c r="C35" s="31">
+        <v>8</v>
+      </c>
+      <c r="D35" s="31">
+        <v>5</v>
+      </c>
+      <c r="E35" s="31">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
-      <c r="C36" s="43">
-        <v>9</v>
-      </c>
-      <c r="D36" s="43">
-        <v>8</v>
-      </c>
-      <c r="E36" s="43">
+      <c r="C36" s="31">
+        <v>9</v>
+      </c>
+      <c r="D36" s="31">
+        <v>8</v>
+      </c>
+      <c r="E36" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="4"/>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="45">
         <f>SUM(D33:D36)/COUNT(D33:D36)</f>
         <v>5</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="45">
         <f>SUM(E33:E36)/COUNT(E33:E36)</f>
         <v>4.25</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="18" t="s">
@@ -1803,56 +2192,56 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
-      <c r="C39" s="43">
-        <v>4</v>
-      </c>
-      <c r="D39" s="43">
-        <v>8</v>
-      </c>
-      <c r="E39" s="43">
+      <c r="C39" s="31">
+        <v>4</v>
+      </c>
+      <c r="D39" s="31">
+        <v>8</v>
+      </c>
+      <c r="E39" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
-      <c r="C40" s="43">
+      <c r="C40" s="31">
         <v>6</v>
       </c>
-      <c r="D40" s="43">
-        <v>7</v>
-      </c>
-      <c r="E40" s="43">
+      <c r="D40" s="31">
+        <v>7</v>
+      </c>
+      <c r="E40" s="31">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
-      <c r="C41" s="43">
+      <c r="C41" s="31">
         <v>10</v>
       </c>
-      <c r="D41" s="43">
-        <v>9</v>
-      </c>
-      <c r="E41" s="43">
+      <c r="D41" s="31">
+        <v>9</v>
+      </c>
+      <c r="E41" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="45">
         <f>SUM(D39:D41)/COUNT(D39:D41)</f>
         <v>8</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="45">
         <f>SUM(E39:E41)/COUNT(E39:E41)</f>
         <v>5.666666666666667</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="44" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="18" t="s">
@@ -1867,26 +2256,26 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
-      <c r="C44" s="43">
-        <v>5</v>
-      </c>
-      <c r="D44" s="43">
-        <v>9</v>
-      </c>
-      <c r="E44" s="43">
+      <c r="C44" s="31">
+        <v>5</v>
+      </c>
+      <c r="D44" s="31">
+        <v>9</v>
+      </c>
+      <c r="E44" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="45">
         <f>SUM(D44:D44)/COUNT(D44:D44)</f>
         <v>9</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="45">
         <f>SUM(E44:E44)/COUNT(E44:E44)</f>
         <v>8</v>
       </c>
@@ -1909,53 +2298,53 @@
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C49" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="58">
+      <c r="C49" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="46">
         <f>D31</f>
         <v>2</v>
       </c>
-      <c r="E49" s="58">
+      <c r="E49" s="46">
         <f>E31</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C50" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="58">
+      <c r="C50" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="46">
         <f>D37</f>
         <v>5</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="46">
         <f>E37</f>
         <v>4.25</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C51" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="58">
+      <c r="C51" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="46">
         <f>D42</f>
         <v>8</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="46">
         <f>E42</f>
         <v>5.666666666666667</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="58">
+      <c r="D52" s="46">
         <f>D45</f>
         <v>9</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="46">
         <f>E45</f>
         <v>8</v>
       </c>
@@ -2001,31 +2390,31 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="D3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="29" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="15" t="s">
@@ -2033,382 +2422,382 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="43">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="43">
-        <v>2</v>
-      </c>
-      <c r="C4" s="43">
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
         <v>3</v>
       </c>
       <c r="D4" s="8">
-        <f>SQRT(($D$23-B4)^2+($E$23-C4)^2)</f>
+        <f t="shared" ref="D4:D13" si="0">SQRT(($D$23-B4)^2+($E$23-C4)^2)</f>
         <v>0.5</v>
       </c>
       <c r="E4" s="8">
-        <f>SQRT(($D$24-B4)^2+($E$24-C4)^2)</f>
+        <f t="shared" ref="E4:E13" si="1">SQRT(($D$24-B4)^2+($E$24-C4)^2)</f>
         <v>3.25</v>
       </c>
       <c r="F4" s="8">
-        <f>SQRT(($D$25-B4)^2+($E$25-C4)^2)</f>
+        <f t="shared" ref="F4:F13" si="2">SQRT(($D$25-B4)^2+($E$25-C4)^2)</f>
         <v>6.5659052011974035</v>
       </c>
       <c r="G4" s="8">
         <f>SQRT(($D$26-B4)^2+($E$26-C4)^2)</f>
         <v>8.6023252670426267</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="42">
         <f>MIN(D4:G4)</f>
         <v>0.5</v>
       </c>
-      <c r="I4" s="55" t="str">
+      <c r="I4" s="43" t="str">
         <f>INDEX($D$3:$G$3, MATCH(MIN(D4:G4), D4:G4, 0))</f>
         <v>C1</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="43">
-        <v>2</v>
-      </c>
-      <c r="B5" s="43">
-        <v>4</v>
-      </c>
-      <c r="C5" s="43">
+      <c r="A5" s="31">
+        <v>2</v>
+      </c>
+      <c r="B5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" s="31">
         <v>5</v>
       </c>
       <c r="D5" s="8">
-        <f>SQRT(($D$23-B5)^2+($E$23-C5)^2)</f>
+        <f t="shared" si="0"/>
         <v>3.2015621187164243</v>
       </c>
       <c r="E5" s="8">
-        <f>SQRT(($D$24-B5)^2+($E$24-C5)^2)</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="F5" s="8">
-        <f>SQRT(($D$25-B5)^2+($E$25-C5)^2)</f>
+        <f t="shared" si="2"/>
         <v>4.0551750201988135</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:G13" si="0">SQRT(($D$26-B5)^2+($E$26-C5)^2)</f>
+        <f t="shared" ref="G5:G13" si="3">SQRT(($D$26-B5)^2+($E$26-C5)^2)</f>
         <v>5.8309518948453007</v>
       </c>
-      <c r="H5" s="54">
-        <f t="shared" ref="H5:H13" si="1">MIN(D5:G5)</f>
+      <c r="H5" s="42">
+        <f t="shared" ref="H5:H13" si="4">MIN(D5:G5)</f>
         <v>1.25</v>
       </c>
-      <c r="I5" s="55" t="str">
-        <f t="shared" ref="I5:I13" si="2">INDEX($D$3:$G$3, MATCH(MIN(D5:G5), D5:G5, 0))</f>
+      <c r="I5" s="43" t="str">
+        <f t="shared" ref="I5:I13" si="5">INDEX($D$3:$G$3, MATCH(MIN(D5:G5), D5:G5, 0))</f>
         <v>C2</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="43">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="31">
         <v>6</v>
       </c>
       <c r="D6" s="8">
-        <f>SQRT(($D$23-B6)^2+($E$23-C6)^2)</f>
+        <f t="shared" si="0"/>
         <v>3.640054944640259</v>
       </c>
       <c r="E6" s="8">
-        <f>SQRT(($D$24-B6)^2+($E$24-C6)^2)</f>
-        <v>2.6575364531836625</v>
-      </c>
-      <c r="F6" s="8">
-        <f>SQRT(($D$25-B6)^2+($E$25-C6)^2)</f>
-        <v>5.0110987927909694</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>6.324555320336759</v>
-      </c>
-      <c r="H6" s="54">
         <f t="shared" si="1"/>
         <v>2.6575364531836625</v>
       </c>
-      <c r="I6" s="55" t="str">
+      <c r="F6" s="8">
         <f t="shared" si="2"/>
+        <v>5.0110987927909694</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="3"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="H6" s="42">
+        <f t="shared" si="4"/>
+        <v>2.6575364531836625</v>
+      </c>
+      <c r="I6" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C2</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="43">
-        <v>4</v>
-      </c>
-      <c r="B7" s="43">
-        <v>8</v>
-      </c>
-      <c r="C7" s="43">
+      <c r="A7" s="31">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31">
+        <v>8</v>
+      </c>
+      <c r="C7" s="31">
         <v>7</v>
       </c>
       <c r="D7" s="8">
-        <f>SQRT(($D$23-B7)^2+($E$23-C7)^2)</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="E7" s="8">
-        <f>SQRT(($D$24-B7)^2+($E$24-C7)^2)</f>
+        <f t="shared" si="1"/>
         <v>4.0697051490249265</v>
       </c>
       <c r="F7" s="8">
-        <f>SQRT(($D$25-B7)^2+($E$25-C7)^2)</f>
+        <f t="shared" si="2"/>
         <v>1.333333333333333</v>
       </c>
       <c r="G7" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H7" s="42">
+        <f t="shared" si="4"/>
+        <v>1.333333333333333</v>
+      </c>
+      <c r="I7" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C3</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31">
+        <v>9</v>
+      </c>
+      <c r="C8" s="31">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="H7" s="54">
+        <v>8.9022469073824286</v>
+      </c>
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>1.333333333333333</v>
-      </c>
-      <c r="I7" s="55" t="str">
+        <v>5.4829280498653272</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" si="2"/>
-        <v>C3</v>
-      </c>
-      <c r="J7" s="59" t="s">
+        <v>2.5385910352879693</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C4</v>
+      </c>
+      <c r="J8" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="43">
-        <v>5</v>
-      </c>
-      <c r="B8" s="43">
-        <v>9</v>
-      </c>
-      <c r="C8" s="43">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8">
-        <f>SQRT(($D$23-B8)^2+($E$23-C8)^2)</f>
-        <v>8.9022469073824286</v>
-      </c>
-      <c r="E8" s="8">
-        <f>SQRT(($D$24-B8)^2+($E$24-C8)^2)</f>
-        <v>5.4829280498653272</v>
-      </c>
-      <c r="F8" s="8">
-        <f>SQRT(($D$25-B8)^2+($E$25-C8)^2)</f>
-        <v>2.5385910352879693</v>
-      </c>
-      <c r="G8" s="8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="31">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="31">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="54">
+        <v>8.2006097334283634</v>
+      </c>
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="55" t="str">
+        <v>5.153882032022076</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="2"/>
+        <v>3.4801021696368499</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" si="4"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="I9" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C4</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J9" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="31">
+        <v>7</v>
+      </c>
+      <c r="B10" s="31">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>7.0316743699096618</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="3"/>
+        <v>9.2195444572928871</v>
+      </c>
+      <c r="H10" s="42">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C1</v>
+      </c>
+      <c r="J10" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="43">
-        <v>6</v>
-      </c>
-      <c r="B9" s="43">
-        <v>7</v>
-      </c>
-      <c r="C9" s="43">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
-        <f>SQRT(($D$23-B9)^2+($E$23-C9)^2)</f>
-        <v>8.2006097334283634</v>
-      </c>
-      <c r="E9" s="8">
-        <f>SQRT(($D$24-B9)^2+($E$24-C9)^2)</f>
-        <v>5.153882032022076</v>
-      </c>
-      <c r="F9" s="8">
-        <f>SQRT(($D$25-B9)^2+($E$25-C9)^2)</f>
-        <v>3.4801021696368499</v>
-      </c>
-      <c r="G9" s="8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>8</v>
+      </c>
+      <c r="B11" s="31">
+        <v>5</v>
+      </c>
+      <c r="C11" s="31">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="H9" s="54">
-        <f t="shared" si="1"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="I9" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C4</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="43">
-        <v>7</v>
-      </c>
-      <c r="B10" s="43">
-        <v>2</v>
-      </c>
-      <c r="C10" s="43">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
-        <f>SQRT(($D$23-B10)^2+($E$23-C10)^2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="8">
-        <f>SQRT(($D$24-B10)^2+($E$24-C10)^2)</f>
-        <v>3.75</v>
-      </c>
-      <c r="F10" s="8">
-        <f>SQRT(($D$25-B10)^2+($E$25-C10)^2)</f>
-        <v>7.0316743699096618</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>9.2195444572928871</v>
-      </c>
-      <c r="H10" s="54">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C1</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="43">
-        <v>8</v>
-      </c>
-      <c r="B11" s="43">
-        <v>5</v>
-      </c>
-      <c r="C11" s="43">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
-        <f>SQRT(($D$23-B11)^2+($E$23-C11)^2)</f>
         <v>3.3541019662496847</v>
       </c>
       <c r="E11" s="8">
-        <f>SQRT(($D$24-B11)^2+($E$24-C11)^2)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="8">
-        <f>SQRT(($D$25-B11)^2+($E$25-C11)^2)</f>
-        <v>3.4318767136623336</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>5.6568542494923806</v>
-      </c>
-      <c r="H11" s="54">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="I11" s="55" t="str">
+      <c r="F11" s="8">
         <f t="shared" si="2"/>
+        <v>3.4318767136623336</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>5.6568542494923806</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C2</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="43">
-        <v>9</v>
-      </c>
-      <c r="B12" s="43">
-        <v>8</v>
-      </c>
-      <c r="C12" s="43">
+      <c r="A12" s="31">
+        <v>9</v>
+      </c>
+      <c r="B12" s="31">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31">
         <v>2</v>
       </c>
       <c r="D12" s="8">
-        <f>SQRT(($D$23-B12)^2+($E$23-C12)^2)</f>
+        <f t="shared" si="0"/>
         <v>6.0207972893961479</v>
       </c>
       <c r="E12" s="8">
-        <f>SQRT(($D$24-B12)^2+($E$24-C12)^2)</f>
+        <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
       <c r="F12" s="8">
-        <f>SQRT(($D$25-B12)^2+($E$25-C12)^2)</f>
+        <f t="shared" si="2"/>
         <v>3.666666666666667</v>
       </c>
       <c r="G12" s="8">
+        <f t="shared" si="3"/>
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="H12" s="42">
+        <f t="shared" si="4"/>
+        <v>3.666666666666667</v>
+      </c>
+      <c r="I12" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C3</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="31">
+        <v>10</v>
+      </c>
+      <c r="B13" s="31">
+        <v>9</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>6.0827625302982193</v>
-      </c>
-      <c r="H12" s="54">
+        <v>7.1589105316381767</v>
+      </c>
+      <c r="E13" s="8">
         <f t="shared" si="1"/>
-        <v>3.666666666666667</v>
-      </c>
-      <c r="I12" s="55" t="str">
+        <v>5.153882032022076</v>
+      </c>
+      <c r="F13" s="8">
         <f t="shared" si="2"/>
+        <v>4.7726070210921181</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="H13" s="42">
+        <f t="shared" si="4"/>
+        <v>4.7726070210921181</v>
+      </c>
+      <c r="I13" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C3</v>
       </c>
-      <c r="J12" s="59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="43">
-        <v>10</v>
-      </c>
-      <c r="B13" s="43">
-        <v>9</v>
-      </c>
-      <c r="C13" s="43">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <f>SQRT(($D$23-B13)^2+($E$23-C13)^2)</f>
-        <v>7.1589105316381767</v>
-      </c>
-      <c r="E13" s="8">
-        <f>SQRT(($D$24-B13)^2+($E$24-C13)^2)</f>
-        <v>5.153882032022076</v>
-      </c>
-      <c r="F13" s="8">
-        <f>SQRT(($D$25-B13)^2+($E$25-C13)^2)</f>
-        <v>4.7726070210921181</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H13" s="54">
-        <f t="shared" si="1"/>
-        <v>4.7726070210921181</v>
-      </c>
-      <c r="I13" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C3</v>
-      </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="47" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2439,11 +2828,11 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
@@ -2459,49 +2848,49 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
-      <c r="C23" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="43">
-        <v>2</v>
-      </c>
-      <c r="E23" s="43">
+      <c r="C23" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="31">
+        <v>2</v>
+      </c>
+      <c r="E23" s="31">
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
-      <c r="C24" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="43">
-        <v>5</v>
-      </c>
-      <c r="E24" s="43">
+      <c r="C24" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="31">
+        <v>5</v>
+      </c>
+      <c r="E24" s="31">
         <v>4.25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
-      <c r="C25" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="43">
-        <v>8</v>
-      </c>
-      <c r="E25" s="43">
+      <c r="C25" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="31">
+        <v>8</v>
+      </c>
+      <c r="E25" s="31">
         <v>5.666666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="43">
-        <v>9</v>
-      </c>
-      <c r="E26" s="43">
+      <c r="D26" s="31">
+        <v>9</v>
+      </c>
+      <c r="E26" s="31">
         <v>8</v>
       </c>
     </row>
@@ -2509,7 +2898,7 @@
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -2524,44 +2913,44 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
-      <c r="C29" s="43">
+      <c r="C29" s="31">
         <v>1</v>
       </c>
-      <c r="D29" s="43">
-        <v>2</v>
-      </c>
-      <c r="E29" s="43">
+      <c r="D29" s="31">
+        <v>2</v>
+      </c>
+      <c r="E29" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
-      <c r="C30" s="43">
-        <v>7</v>
-      </c>
-      <c r="D30" s="43">
-        <v>2</v>
-      </c>
-      <c r="E30" s="43">
+      <c r="C30" s="31">
+        <v>7</v>
+      </c>
+      <c r="D30" s="31">
+        <v>2</v>
+      </c>
+      <c r="E30" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="45">
         <f>SUM(D29:D30)/COUNT(D29:D30)</f>
         <v>2</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="45">
         <f>SUM(E29:E30)/COUNT(E29:E30)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="18" t="s">
@@ -2576,56 +2965,56 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
-      <c r="C33" s="43">
-        <v>2</v>
-      </c>
-      <c r="D33" s="43">
-        <v>4</v>
-      </c>
-      <c r="E33" s="43">
+      <c r="C33" s="31">
+        <v>2</v>
+      </c>
+      <c r="D33" s="31">
+        <v>4</v>
+      </c>
+      <c r="E33" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
-      <c r="C34" s="43">
+      <c r="C34" s="31">
         <v>3</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="31">
         <v>3</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
-      <c r="C35" s="43">
-        <v>8</v>
-      </c>
-      <c r="D35" s="43">
-        <v>5</v>
-      </c>
-      <c r="E35" s="43">
+      <c r="C35" s="31">
+        <v>8</v>
+      </c>
+      <c r="D35" s="31">
+        <v>5</v>
+      </c>
+      <c r="E35" s="31">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="45">
         <f>SUM(D33:D35)/COUNT(D33:D35)</f>
         <v>4</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="45">
         <f>SUM(E33:E35)/COUNT(E33:E35)</f>
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="18" t="s">
@@ -2640,56 +3029,56 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
-      <c r="C38" s="43">
-        <v>4</v>
-      </c>
-      <c r="D38" s="43">
-        <v>8</v>
-      </c>
-      <c r="E38" s="43">
+      <c r="C38" s="31">
+        <v>4</v>
+      </c>
+      <c r="D38" s="31">
+        <v>8</v>
+      </c>
+      <c r="E38" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
-      <c r="C39" s="43">
-        <v>9</v>
-      </c>
-      <c r="D39" s="43">
-        <v>8</v>
-      </c>
-      <c r="E39" s="43">
+      <c r="C39" s="31">
+        <v>9</v>
+      </c>
+      <c r="D39" s="31">
+        <v>8</v>
+      </c>
+      <c r="E39" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
-      <c r="C40" s="43">
+      <c r="C40" s="31">
         <v>10</v>
       </c>
-      <c r="D40" s="43">
-        <v>9</v>
-      </c>
-      <c r="E40" s="43">
+      <c r="D40" s="31">
+        <v>9</v>
+      </c>
+      <c r="E40" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="45">
         <f>SUM(D38:D40)/COUNT(D38:D40)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="45">
         <f>SUM(E38:E40)/COUNT(E38:E40)</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="44" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="18" t="s">
@@ -2704,38 +3093,38 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
-      <c r="C43" s="43">
-        <v>5</v>
-      </c>
-      <c r="D43" s="43">
-        <v>9</v>
-      </c>
-      <c r="E43" s="43">
+      <c r="C43" s="31">
+        <v>5</v>
+      </c>
+      <c r="D43" s="31">
+        <v>9</v>
+      </c>
+      <c r="E43" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
-      <c r="C44" s="43">
+      <c r="C44" s="31">
         <v>6</v>
       </c>
-      <c r="D44" s="43">
-        <v>7</v>
-      </c>
-      <c r="E44" s="43">
+      <c r="D44" s="31">
+        <v>7</v>
+      </c>
+      <c r="E44" s="31">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="45">
         <f>SUM(D43:D44)/COUNT(D43:D44)</f>
         <v>8</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="45">
         <f>SUM(E43:E44)/COUNT(E43:E44)</f>
         <v>8.5</v>
       </c>
@@ -2758,53 +3147,53 @@
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C49" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="58">
+      <c r="C49" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="46">
         <f>D31</f>
         <v>2</v>
       </c>
-      <c r="E49" s="58">
+      <c r="E49" s="46">
         <f>E31</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C50" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="58">
+      <c r="C50" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="46">
         <f>D36</f>
         <v>4</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="46">
         <f>E36</f>
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C51" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="58">
+      <c r="C51" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="46">
         <f>D41</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="46">
         <f>E41</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="58">
+      <c r="D52" s="46">
         <f>D45</f>
         <v>8</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="46">
         <f>E45</f>
         <v>8.5</v>
       </c>
@@ -2820,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589FDFA0-524A-40FA-A138-D7238882A71C}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2839,7 +3228,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2850,31 +3239,31 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="D3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="29" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="15" t="s">
@@ -2882,382 +3271,382 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="43">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="43">
-        <v>2</v>
-      </c>
-      <c r="C4" s="43">
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
         <v>3</v>
       </c>
       <c r="D4" s="8">
-        <f>SQRT(($D$23-B4)^2+($E$23-C4)^2)</f>
+        <f t="shared" ref="D4:D13" si="0">SQRT(($D$23-B4)^2+($E$23-C4)^2)</f>
         <v>0.5</v>
       </c>
       <c r="E4" s="8">
-        <f>SQRT(($D$24-B4)^2+($E$24-C4)^2)</f>
+        <f t="shared" ref="E4:E13" si="1">SQRT(($D$24-B4)^2+($E$24-C4)^2)</f>
         <v>2.8284271247461903</v>
       </c>
       <c r="F4" s="8">
-        <f>SQRT(($D$25-B4)^2+($E$25-C4)^2)</f>
+        <f t="shared" ref="F4:F13" si="2">SQRT(($D$25-B4)^2+($E$25-C4)^2)</f>
         <v>6.3420991968134839</v>
       </c>
       <c r="G4" s="8">
         <f>SQRT(($D$26-B4)^2+($E$26-C4)^2)</f>
         <v>8.1394102980498531</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="42">
         <f>MIN(D4:G4)</f>
         <v>0.5</v>
       </c>
-      <c r="I4" s="55" t="str">
+      <c r="I4" s="43" t="str">
         <f>INDEX($D$3:$G$3, MATCH(MIN(D4:G4), D4:G4, 0))</f>
         <v>C1</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="43">
-        <v>2</v>
-      </c>
-      <c r="B5" s="43">
-        <v>4</v>
-      </c>
-      <c r="C5" s="43">
+      <c r="A5" s="31">
+        <v>2</v>
+      </c>
+      <c r="B5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" s="31">
         <v>5</v>
       </c>
       <c r="D5" s="8">
-        <f>SQRT(($D$23-B5)^2+($E$23-C5)^2)</f>
+        <f t="shared" si="0"/>
         <v>3.2015621187164243</v>
       </c>
       <c r="E5" s="8">
-        <f>SQRT(($D$24-B5)^2+($E$24-C5)^2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f>SQRT(($D$25-B5)^2+($E$25-C5)^2)</f>
+        <f t="shared" si="2"/>
         <v>4.6427960923947067</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:G13" si="0">SQRT(($D$26-B5)^2+($E$26-C5)^2)</f>
+        <f t="shared" ref="G5:G13" si="3">SQRT(($D$26-B5)^2+($E$26-C5)^2)</f>
         <v>5.315072906367325</v>
       </c>
-      <c r="H5" s="54">
-        <f t="shared" ref="H5:H13" si="1">MIN(D5:G5)</f>
+      <c r="H5" s="42">
+        <f t="shared" ref="H5:H13" si="4">MIN(D5:G5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="55" t="str">
-        <f t="shared" ref="I5:I13" si="2">INDEX($D$3:$G$3, MATCH(MIN(D5:G5), D5:G5, 0))</f>
+      <c r="I5" s="43" t="str">
+        <f t="shared" ref="I5:I13" si="5">INDEX($D$3:$G$3, MATCH(MIN(D5:G5), D5:G5, 0))</f>
         <v>C2</v>
       </c>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="43">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="31">
         <v>6</v>
       </c>
       <c r="D6" s="8">
-        <f>SQRT(($D$23-B6)^2+($E$23-C6)^2)</f>
+        <f t="shared" si="0"/>
         <v>3.640054944640259</v>
       </c>
       <c r="E6" s="8">
-        <f>SQRT(($D$24-B6)^2+($E$24-C6)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="F6" s="8">
-        <f>SQRT(($D$25-B6)^2+($E$25-C6)^2)</f>
-        <v>5.9628479399994392</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>5.5901699437494745</v>
-      </c>
-      <c r="H6" s="54">
         <f t="shared" si="1"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="I6" s="55" t="str">
+      <c r="F6" s="8">
         <f t="shared" si="2"/>
+        <v>5.9628479399994392</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="3"/>
+        <v>5.5901699437494745</v>
+      </c>
+      <c r="H6" s="42">
+        <f t="shared" si="4"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I6" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C2</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="43">
-        <v>4</v>
-      </c>
-      <c r="B7" s="43">
-        <v>8</v>
-      </c>
-      <c r="C7" s="43">
+      <c r="A7" s="31">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31">
+        <v>8</v>
+      </c>
+      <c r="C7" s="31">
         <v>7</v>
       </c>
       <c r="D7" s="8">
-        <f>SQRT(($D$23-B7)^2+($E$23-C7)^2)</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="E7" s="8">
-        <f>SQRT(($D$24-B7)^2+($E$24-C7)^2)</f>
+        <f t="shared" si="1"/>
         <v>4.4721359549995796</v>
       </c>
       <c r="F7" s="8">
-        <f>SQRT(($D$25-B7)^2+($E$25-C7)^2)</f>
+        <f t="shared" si="2"/>
         <v>3.6817870057290865</v>
       </c>
       <c r="G7" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="42">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C4</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31">
+        <v>9</v>
+      </c>
+      <c r="C8" s="31">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="54">
+        <v>8.9022469073824286</v>
+      </c>
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="55" t="str">
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" si="2"/>
+        <v>4.7140452079103161</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="3"/>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="H8" s="42">
+        <f t="shared" si="4"/>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="I8" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C4</v>
       </c>
-      <c r="J7" s="59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="43">
-        <v>5</v>
-      </c>
-      <c r="B8" s="43">
-        <v>9</v>
-      </c>
-      <c r="C8" s="43">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8">
-        <f>SQRT(($D$23-B8)^2+($E$23-C8)^2)</f>
-        <v>8.9022469073824286</v>
-      </c>
-      <c r="E8" s="8">
-        <f>SQRT(($D$24-B8)^2+($E$24-C8)^2)</f>
-        <v>5.8309518948453007</v>
-      </c>
-      <c r="F8" s="8">
-        <f>SQRT(($D$25-B8)^2+($E$25-C8)^2)</f>
-        <v>4.7140452079103161</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="J8" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="31">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="31">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
+        <v>8.2006097334283634</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>5.8214163988576599</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="3"/>
         <v>1.1180339887498949</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H9" s="42">
+        <f t="shared" si="4"/>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="I9" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C4</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="31">
+        <v>7</v>
+      </c>
+      <c r="B10" s="31">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="I8" s="55" t="str">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" si="2"/>
-        <v>C4</v>
-      </c>
-      <c r="J8" s="59" t="s">
+        <v>6.472162612982534</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="3"/>
+        <v>8.8459030064770658</v>
+      </c>
+      <c r="H10" s="42">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C1</v>
+      </c>
+      <c r="J10" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="43">
-        <v>6</v>
-      </c>
-      <c r="B9" s="43">
-        <v>7</v>
-      </c>
-      <c r="C9" s="43">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8">
-        <f>SQRT(($D$23-B9)^2+($E$23-C9)^2)</f>
-        <v>8.2006097334283634</v>
-      </c>
-      <c r="E9" s="8">
-        <f>SQRT(($D$24-B9)^2+($E$24-C9)^2)</f>
-        <v>5</v>
-      </c>
-      <c r="F9" s="8">
-        <f>SQRT(($D$25-B9)^2+($E$25-C9)^2)</f>
-        <v>5.8214163988576599</v>
-      </c>
-      <c r="G9" s="8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>8</v>
+      </c>
+      <c r="B11" s="31">
+        <v>5</v>
+      </c>
+      <c r="C11" s="31">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="H9" s="54">
-        <f t="shared" si="1"/>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="I9" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C4</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="43">
-        <v>7</v>
-      </c>
-      <c r="B10" s="43">
-        <v>2</v>
-      </c>
-      <c r="C10" s="43">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
-        <f>SQRT(($D$23-B10)^2+($E$23-C10)^2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="8">
-        <f>SQRT(($D$24-B10)^2+($E$24-C10)^2)</f>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="F10" s="8">
-        <f>SQRT(($D$25-B10)^2+($E$25-C10)^2)</f>
-        <v>6.472162612982534</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>8.8459030064770658</v>
-      </c>
-      <c r="H10" s="54">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C1</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="43">
-        <v>8</v>
-      </c>
-      <c r="B11" s="43">
-        <v>5</v>
-      </c>
-      <c r="C11" s="43">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
-        <f>SQRT(($D$23-B11)^2+($E$23-C11)^2)</f>
         <v>3.3541019662496847</v>
       </c>
       <c r="E11" s="8">
-        <f>SQRT(($D$24-B11)^2+($E$24-C11)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="F11" s="8">
-        <f>SQRT(($D$25-B11)^2+($E$25-C11)^2)</f>
-        <v>3.3993463423951904</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>5.4083269131959844</v>
-      </c>
-      <c r="H11" s="54">
         <f t="shared" si="1"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="I11" s="55" t="str">
+      <c r="F11" s="8">
         <f t="shared" si="2"/>
+        <v>3.3993463423951904</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>5.4083269131959844</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" si="4"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I11" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C2</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="43">
-        <v>9</v>
-      </c>
-      <c r="B12" s="43">
-        <v>8</v>
-      </c>
-      <c r="C12" s="43">
+      <c r="A12" s="31">
+        <v>9</v>
+      </c>
+      <c r="B12" s="31">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31">
         <v>2</v>
       </c>
       <c r="D12" s="8">
-        <f>SQRT(($D$23-B12)^2+($E$23-C12)^2)</f>
+        <f t="shared" si="0"/>
         <v>6.0207972893961479</v>
       </c>
       <c r="E12" s="8">
-        <f>SQRT(($D$24-B12)^2+($E$24-C12)^2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F12" s="8">
-        <f>SQRT(($D$25-B12)^2+($E$25-C12)^2)</f>
+        <f t="shared" si="2"/>
         <v>1.3743685418725538</v>
       </c>
       <c r="G12" s="8">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="H12" s="42">
+        <f t="shared" si="4"/>
+        <v>1.3743685418725538</v>
+      </c>
+      <c r="I12" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C3</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="31">
+        <v>10</v>
+      </c>
+      <c r="B13" s="31">
+        <v>9</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="H12" s="54">
+        <v>7.1589105316381767</v>
+      </c>
+      <c r="E13" s="8">
         <f t="shared" si="1"/>
-        <v>1.3743685418725538</v>
-      </c>
-      <c r="I12" s="55" t="str">
+        <v>6.4031242374328485</v>
+      </c>
+      <c r="F13" s="8">
         <f t="shared" si="2"/>
+        <v>2.4267032964268394</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="3"/>
+        <v>7.5663729752107782</v>
+      </c>
+      <c r="H13" s="42">
+        <f t="shared" si="4"/>
+        <v>2.4267032964268394</v>
+      </c>
+      <c r="I13" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C3</v>
       </c>
-      <c r="J12" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="43">
-        <v>10</v>
-      </c>
-      <c r="B13" s="43">
-        <v>9</v>
-      </c>
-      <c r="C13" s="43">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <f>SQRT(($D$23-B13)^2+($E$23-C13)^2)</f>
-        <v>7.1589105316381767</v>
-      </c>
-      <c r="E13" s="8">
-        <f>SQRT(($D$24-B13)^2+($E$24-C13)^2)</f>
-        <v>6.4031242374328485</v>
-      </c>
-      <c r="F13" s="8">
-        <f>SQRT(($D$25-B13)^2+($E$25-C13)^2)</f>
-        <v>2.4267032964268394</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>7.5663729752107782</v>
-      </c>
-      <c r="H13" s="54">
-        <f t="shared" si="1"/>
-        <v>2.4267032964268394</v>
-      </c>
-      <c r="I13" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C3</v>
-      </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="47" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3288,11 +3677,11 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
@@ -3308,49 +3697,49 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
-      <c r="C23" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="43">
-        <v>2</v>
-      </c>
-      <c r="E23" s="43">
+      <c r="C23" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="31">
+        <v>2</v>
+      </c>
+      <c r="E23" s="31">
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
-      <c r="C24" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="43">
-        <v>4</v>
-      </c>
-      <c r="E24" s="43">
+      <c r="C24" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="31">
+        <v>4</v>
+      </c>
+      <c r="E24" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
-      <c r="C25" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="43">
+      <c r="C25" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="31">
         <v>8.3333333333333339</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="31">
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="43">
-        <v>8</v>
-      </c>
-      <c r="E26" s="43">
+      <c r="D26" s="31">
+        <v>8</v>
+      </c>
+      <c r="E26" s="31">
         <v>8.5</v>
       </c>
     </row>
@@ -3358,7 +3747,7 @@
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -3373,44 +3762,44 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
-      <c r="C29" s="43">
+      <c r="C29" s="31">
         <v>1</v>
       </c>
-      <c r="D29" s="43">
-        <v>2</v>
-      </c>
-      <c r="E29" s="43">
+      <c r="D29" s="31">
+        <v>2</v>
+      </c>
+      <c r="E29" s="31">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
-      <c r="C30" s="43">
-        <v>7</v>
-      </c>
-      <c r="D30" s="43">
-        <v>2</v>
-      </c>
-      <c r="E30" s="43">
+      <c r="C30" s="31">
+        <v>7</v>
+      </c>
+      <c r="D30" s="31">
+        <v>2</v>
+      </c>
+      <c r="E30" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="45">
         <f>SUM(D29:D30)/COUNT(D29:D30)</f>
         <v>2</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="45">
         <f>SUM(E29:E30)/COUNT(E29:E30)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="18" t="s">
@@ -3425,56 +3814,56 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
-      <c r="C33" s="43">
-        <v>2</v>
-      </c>
-      <c r="D33" s="43">
-        <v>4</v>
-      </c>
-      <c r="E33" s="43">
+      <c r="C33" s="31">
+        <v>2</v>
+      </c>
+      <c r="D33" s="31">
+        <v>4</v>
+      </c>
+      <c r="E33" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
-      <c r="C34" s="43">
+      <c r="C34" s="31">
         <v>3</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="31">
         <v>3</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
-      <c r="C35" s="43">
-        <v>8</v>
-      </c>
-      <c r="D35" s="43">
-        <v>5</v>
-      </c>
-      <c r="E35" s="43">
+      <c r="C35" s="31">
+        <v>8</v>
+      </c>
+      <c r="D35" s="31">
+        <v>5</v>
+      </c>
+      <c r="E35" s="31">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="45">
         <f>SUM(D33:D35)/COUNT(D33:D35)</f>
         <v>4</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="45">
         <f>SUM(E33:E35)/COUNT(E33:E35)</f>
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="18" t="s">
@@ -3489,44 +3878,44 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
-      <c r="C38" s="43">
-        <v>9</v>
-      </c>
-      <c r="D38" s="43">
-        <v>8</v>
-      </c>
-      <c r="E38" s="43">
+      <c r="C38" s="31">
+        <v>9</v>
+      </c>
+      <c r="D38" s="31">
+        <v>8</v>
+      </c>
+      <c r="E38" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
-      <c r="C39" s="43">
+      <c r="C39" s="31">
         <v>10</v>
       </c>
-      <c r="D39" s="43">
-        <v>9</v>
-      </c>
-      <c r="E39" s="43">
+      <c r="D39" s="31">
+        <v>9</v>
+      </c>
+      <c r="E39" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="45">
         <f>SUM(D38:D39)/COUNT(D38:D39)</f>
         <v>8.5</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="45">
         <f>SUM(E38:E39)/COUNT(E38:E39)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="44" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="18" t="s">
@@ -3541,50 +3930,50 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
-      <c r="C42" s="43">
-        <v>4</v>
-      </c>
-      <c r="D42" s="43">
-        <v>8</v>
-      </c>
-      <c r="E42" s="43">
+      <c r="C42" s="31">
+        <v>4</v>
+      </c>
+      <c r="D42" s="31">
+        <v>8</v>
+      </c>
+      <c r="E42" s="31">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
-      <c r="C43" s="43">
-        <v>5</v>
-      </c>
-      <c r="D43" s="43">
-        <v>9</v>
-      </c>
-      <c r="E43" s="43">
+      <c r="C43" s="31">
+        <v>5</v>
+      </c>
+      <c r="D43" s="31">
+        <v>9</v>
+      </c>
+      <c r="E43" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
-      <c r="C44" s="43">
+      <c r="C44" s="31">
         <v>6</v>
       </c>
-      <c r="D44" s="43">
-        <v>7</v>
-      </c>
-      <c r="E44" s="43">
+      <c r="D44" s="31">
+        <v>7</v>
+      </c>
+      <c r="E44" s="31">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="45">
         <f>SUM(D42:D44)/COUNT(D42:D44)</f>
         <v>8</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="45">
         <f>SUM(E42:E44)/COUNT(E42:E44)</f>
         <v>8</v>
       </c>
@@ -3607,53 +3996,53 @@
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C49" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="58">
+      <c r="C49" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="46">
         <f>D31</f>
         <v>2</v>
       </c>
-      <c r="E49" s="58">
+      <c r="E49" s="46">
         <f>E31</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C50" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="58">
+      <c r="C50" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="46">
         <f>D36</f>
         <v>4</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="46">
         <f>E36</f>
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C51" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="58">
+      <c r="C51" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="46">
         <f>D40</f>
         <v>8.5</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="46">
         <f>E40</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="58">
+      <c r="D52" s="46">
         <f>D45</f>
         <v>8</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="46">
         <f>E45</f>
         <v>8</v>
       </c>
@@ -3667,10 +4056,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B47F65-7F92-499E-9C9B-2A8D1B9A61FB}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A7" sqref="A7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3688,7 +4078,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3699,68 +4089,68 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="D3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="J3" s="52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="43">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="43">
-        <v>2</v>
-      </c>
-      <c r="C4" s="43">
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
         <v>3</v>
       </c>
       <c r="D4" s="8">
-        <f>SQRT(($D$23-B4)^2+($E$23-C4)^2)</f>
+        <f t="shared" ref="D4:D13" si="0">SQRT(($D$23-B4)^2+($E$23-C4)^2)</f>
         <v>0.5</v>
       </c>
       <c r="E4" s="8">
-        <f>SQRT(($D$24-B4)^2+($E$24-C4)^2)</f>
+        <f t="shared" ref="E4:E13" si="1">SQRT(($D$24-B4)^2+($E$24-C4)^2)</f>
         <v>2.8284271247461903</v>
       </c>
       <c r="F4" s="8">
-        <f>SQRT(($D$25-B4)^2+($E$25-C4)^2)</f>
+        <f t="shared" ref="F4:F13" si="2">SQRT(($D$25-B4)^2+($E$25-C4)^2)</f>
         <v>6.6708320320631671</v>
       </c>
       <c r="G4" s="8">
         <f>SQRT(($D$26-B4)^2+($E$26-C4)^2)</f>
         <v>7.810249675906654</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="42">
         <f>MIN(D4:G4)</f>
         <v>0.5</v>
       </c>
-      <c r="I4" s="55" t="str">
+      <c r="I4" s="43" t="str">
         <f>INDEX($D$3:$G$3, MATCH(MIN(D4:G4), D4:G4, 0))</f>
         <v>C1</v>
       </c>
@@ -3768,76 +4158,76 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="43">
-        <v>2</v>
-      </c>
-      <c r="B5" s="43">
-        <v>4</v>
-      </c>
-      <c r="C5" s="43">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31">
+        <v>2</v>
+      </c>
+      <c r="B5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" s="31">
         <v>5</v>
       </c>
       <c r="D5" s="8">
-        <f>SQRT(($D$23-B5)^2+($E$23-C5)^2)</f>
+        <f t="shared" si="0"/>
         <v>3.2015621187164243</v>
       </c>
       <c r="E5" s="8">
-        <f>SQRT(($D$24-B5)^2+($E$24-C5)^2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f>SQRT(($D$25-B5)^2+($E$25-C5)^2)</f>
+        <f t="shared" si="2"/>
         <v>5.7008771254956896</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:G13" si="0">SQRT(($D$26-B5)^2+($E$26-C5)^2)</f>
-        <v>5</v>
-      </c>
-      <c r="H5" s="54">
-        <f t="shared" ref="H5:H13" si="1">MIN(D5:G5)</f>
+        <f t="shared" ref="G5:G13" si="3">SQRT(($D$26-B5)^2+($E$26-C5)^2)</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="42">
+        <f t="shared" ref="H5:H13" si="4">MIN(D5:G5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="55" t="str">
-        <f t="shared" ref="I5:I13" si="2">INDEX($D$3:$G$3, MATCH(MIN(D5:G5), D5:G5, 0))</f>
+      <c r="I5" s="43" t="str">
+        <f t="shared" ref="I5:I13" si="5">INDEX($D$3:$G$3, MATCH(MIN(D5:G5), D5:G5, 0))</f>
         <v>C2</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="43">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="31">
         <v>6</v>
       </c>
       <c r="D6" s="8">
-        <f>SQRT(($D$23-B6)^2+($E$23-C6)^2)</f>
+        <f t="shared" si="0"/>
         <v>3.640054944640259</v>
       </c>
       <c r="E6" s="8">
-        <f>SQRT(($D$24-B6)^2+($E$24-C6)^2)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="F6" s="8">
-        <f>SQRT(($D$25-B6)^2+($E$25-C6)^2)</f>
-        <v>7.1063352017759476</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>5.3851648071345037</v>
-      </c>
-      <c r="H6" s="54">
         <f t="shared" si="1"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="I6" s="55" t="str">
+      <c r="F6" s="8">
         <f t="shared" si="2"/>
+        <v>7.1063352017759476</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="3"/>
+        <v>5.3851648071345037</v>
+      </c>
+      <c r="H6" s="42">
+        <f t="shared" si="4"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I6" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C2</v>
       </c>
       <c r="J6" s="15" t="s">
@@ -3845,37 +4235,37 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="43">
-        <v>4</v>
-      </c>
-      <c r="B7" s="43">
-        <v>8</v>
-      </c>
-      <c r="C7" s="43">
+      <c r="A7" s="31">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31">
+        <v>8</v>
+      </c>
+      <c r="C7" s="31">
         <v>7</v>
       </c>
       <c r="D7" s="8">
-        <f>SQRT(($D$23-B7)^2+($E$23-C7)^2)</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="E7" s="8">
-        <f>SQRT(($D$24-B7)^2+($E$24-C7)^2)</f>
+        <f t="shared" si="1"/>
         <v>4.4721359549995796</v>
       </c>
       <c r="F7" s="8">
-        <f>SQRT(($D$25-B7)^2+($E$25-C7)^2)</f>
+        <f t="shared" si="2"/>
         <v>5.5226805085936306</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H7" s="54">
-        <f t="shared" si="1"/>
+      <c r="H7" s="42">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I7" s="55" t="str">
-        <f t="shared" si="2"/>
+      <c r="I7" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C4</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -3883,37 +4273,37 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="43">
-        <v>5</v>
-      </c>
-      <c r="B8" s="43">
-        <v>9</v>
-      </c>
-      <c r="C8" s="43">
+      <c r="A8" s="31">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31">
+        <v>9</v>
+      </c>
+      <c r="C8" s="31">
         <v>8</v>
       </c>
       <c r="D8" s="8">
-        <f>SQRT(($D$23-B8)^2+($E$23-C8)^2)</f>
+        <f t="shared" si="0"/>
         <v>8.9022469073824286</v>
       </c>
       <c r="E8" s="8">
-        <f>SQRT(($D$24-B8)^2+($E$24-C8)^2)</f>
+        <f t="shared" si="1"/>
         <v>5.8309518948453007</v>
       </c>
       <c r="F8" s="8">
-        <f>SQRT(($D$25-B8)^2+($E$25-C8)^2)</f>
+        <f t="shared" si="2"/>
         <v>6.5192024052026492</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H8" s="54">
-        <f t="shared" si="1"/>
+      <c r="H8" s="42">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I8" s="55" t="str">
-        <f t="shared" si="2"/>
+      <c r="I8" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C4</v>
       </c>
       <c r="J8" s="15" t="s">
@@ -3921,189 +4311,189 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="43">
+      <c r="A9" s="31">
         <v>6</v>
       </c>
-      <c r="B9" s="43">
-        <v>7</v>
-      </c>
-      <c r="C9" s="43">
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="31">
         <v>9</v>
       </c>
       <c r="D9" s="8">
-        <f>SQRT(($D$23-B9)^2+($E$23-C9)^2)</f>
+        <f t="shared" si="0"/>
         <v>8.2006097334283634</v>
       </c>
       <c r="E9" s="8">
-        <f>SQRT(($D$24-B9)^2+($E$24-C9)^2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F9" s="8">
-        <f>SQRT(($D$25-B9)^2+($E$25-C9)^2)</f>
+        <f t="shared" si="2"/>
         <v>7.6485292703891776</v>
       </c>
       <c r="G9" s="8">
+        <f t="shared" si="3"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" si="4"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="I9" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C4</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="31">
+        <v>7</v>
+      </c>
+      <c r="B10" s="31">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="H9" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>6.5192024052026492</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="3"/>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="H10" s="42">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>C1</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
+        <v>8</v>
+      </c>
+      <c r="B11" s="31">
+        <v>5</v>
+      </c>
+      <c r="C11" s="31">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.3541019662496847</v>
+      </c>
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="I9" s="55" t="str">
+      <c r="F11" s="8">
         <f t="shared" si="2"/>
-        <v>C4</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="43">
-        <v>7</v>
-      </c>
-      <c r="B10" s="43">
-        <v>2</v>
-      </c>
-      <c r="C10" s="43">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
-        <f>SQRT(($D$23-B10)^2+($E$23-C10)^2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="8">
-        <f>SQRT(($D$24-B10)^2+($E$24-C10)^2)</f>
-        <v>3.6055512754639891</v>
-      </c>
-      <c r="F10" s="8">
-        <f>SQRT(($D$25-B10)^2+($E$25-C10)^2)</f>
-        <v>6.5192024052026492</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="H10" s="54">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="55" t="str">
-        <f t="shared" si="2"/>
-        <v>C1</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="43">
-        <v>8</v>
-      </c>
-      <c r="B11" s="43">
-        <v>5</v>
-      </c>
-      <c r="C11" s="43">
-        <v>4</v>
-      </c>
-      <c r="D11" s="8">
-        <f>SQRT(($D$23-B11)^2+($E$23-C11)^2)</f>
-        <v>3.3541019662496847</v>
-      </c>
-      <c r="E11" s="8">
-        <f>SQRT(($D$24-B11)^2+($E$24-C11)^2)</f>
+        <v>4.3011626335213133</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" si="4"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="F11" s="8">
-        <f>SQRT(($D$25-B11)^2+($E$25-C11)^2)</f>
-        <v>4.3011626335213133</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H11" s="54">
-        <f t="shared" si="1"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="I11" s="55" t="str">
-        <f t="shared" si="2"/>
+      <c r="I11" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C2</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="43">
-        <v>9</v>
-      </c>
-      <c r="B12" s="43">
-        <v>8</v>
-      </c>
-      <c r="C12" s="43">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31">
+        <v>9</v>
+      </c>
+      <c r="B12" s="31">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31">
         <v>2</v>
       </c>
       <c r="D12" s="8">
-        <f>SQRT(($D$23-B12)^2+($E$23-C12)^2)</f>
+        <f t="shared" si="0"/>
         <v>6.0207972893961479</v>
       </c>
       <c r="E12" s="8">
-        <f>SQRT(($D$24-B12)^2+($E$24-C12)^2)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F12" s="8">
-        <f>SQRT(($D$25-B12)^2+($E$25-C12)^2)</f>
+        <f t="shared" si="2"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H12" s="54">
-        <f t="shared" si="1"/>
+      <c r="H12" s="42">
+        <f t="shared" si="4"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="I12" s="55" t="str">
-        <f t="shared" si="2"/>
+      <c r="I12" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C3</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="43">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31">
         <v>10</v>
       </c>
-      <c r="B13" s="43">
-        <v>9</v>
-      </c>
-      <c r="C13" s="43">
+      <c r="B13" s="31">
+        <v>9</v>
+      </c>
+      <c r="C13" s="31">
         <v>1</v>
       </c>
       <c r="D13" s="8">
-        <f>SQRT(($D$23-B13)^2+($E$23-C13)^2)</f>
+        <f t="shared" si="0"/>
         <v>7.1589105316381767</v>
       </c>
       <c r="E13" s="8">
-        <f>SQRT(($D$24-B13)^2+($E$24-C13)^2)</f>
+        <f t="shared" si="1"/>
         <v>6.4031242374328485</v>
       </c>
       <c r="F13" s="8">
-        <f>SQRT(($D$25-B13)^2+($E$25-C13)^2)</f>
+        <f t="shared" si="2"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.0710678118654755</v>
       </c>
-      <c r="H13" s="54">
-        <f t="shared" si="1"/>
+      <c r="H13" s="42">
+        <f t="shared" si="4"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="I13" s="55" t="str">
-        <f t="shared" si="2"/>
+      <c r="I13" s="43" t="str">
+        <f t="shared" si="5"/>
         <v>C3</v>
       </c>
       <c r="J13" s="15" t="s">
@@ -4137,11 +4527,11 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
@@ -4157,49 +4547,49 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
-      <c r="C23" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="43">
-        <v>2</v>
-      </c>
-      <c r="E23" s="43">
+      <c r="C23" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="31">
+        <v>2</v>
+      </c>
+      <c r="E23" s="31">
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
-      <c r="C24" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="43">
-        <v>4</v>
-      </c>
-      <c r="E24" s="43">
+      <c r="C24" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="31">
+        <v>4</v>
+      </c>
+      <c r="E24" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
-      <c r="C25" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="43">
+      <c r="C25" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="31">
         <v>8.5</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="31">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="43">
-        <v>8</v>
-      </c>
-      <c r="E26" s="43">
+      <c r="D26" s="31">
+        <v>8</v>
+      </c>
+      <c r="E26" s="31">
         <v>8</v>
       </c>
     </row>
@@ -4207,182 +4597,188 @@
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="60"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="60"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="60"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="60"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="60"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="60"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="60"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="60"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="60"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="60"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="60"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="60"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="60"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
       <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I13" xr:uid="{872F09F0-3F9D-401D-87CC-33DDD0A80BBB}"/>
+  <autoFilter ref="A3:I13" xr:uid="{872F09F0-3F9D-401D-87CC-33DDD0A80BBB}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="C4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="272" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4390,1542 +4786,1426 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878F28B1-A1F8-452B-B38F-4B7FB48241D4}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
     <col min="4" max="4" width="9.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
     <col min="6" max="6" width="9.26953125" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="8.7265625" style="3"/>
+    <col min="9" max="9" width="8.7265625" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="4"/>
     <col min="11" max="11" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D3" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="74">
+        <v>1</v>
+      </c>
+      <c r="B4" s="67">
+        <v>2</v>
+      </c>
+      <c r="C4" s="67">
+        <v>3</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="33">
+        <f>SQRT(($H$4-B4)^2+($I$4-C4)^2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="65">
+        <v>2</v>
+      </c>
+      <c r="I4" s="85">
+        <v>2.5</v>
+      </c>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="75">
+        <v>7</v>
+      </c>
+      <c r="B5" s="69">
+        <v>2</v>
+      </c>
+      <c r="C5" s="69">
+        <v>2</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="33">
+        <f>SQRT(($H$4-B5)^2+($I$4-C5)^2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="31">
+        <v>4</v>
+      </c>
+      <c r="I5" s="81">
+        <v>5</v>
+      </c>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="76">
+        <v>2</v>
+      </c>
+      <c r="B6" s="31">
+        <v>4</v>
+      </c>
+      <c r="C6" s="31">
+        <v>5</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="33">
+        <f>SQRT(($H$5-B6)^2+($I$5-C6)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="31">
+        <v>8.5</v>
+      </c>
+      <c r="I6" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="76">
+        <v>3</v>
+      </c>
+      <c r="B7" s="31">
+        <v>3</v>
+      </c>
+      <c r="C7" s="31">
+        <v>6</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" ref="E7:E8" si="0">SQRT(($H$5-B7)^2+($I$5-C7)^2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="78">
+        <v>8</v>
+      </c>
+      <c r="I7" s="83">
+        <v>8</v>
+      </c>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="75">
+        <v>8</v>
+      </c>
+      <c r="B8" s="69">
+        <v>5</v>
+      </c>
+      <c r="C8" s="69">
+        <v>4</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="33">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="74">
+        <v>9</v>
+      </c>
+      <c r="B9" s="67">
+        <v>8</v>
+      </c>
+      <c r="C9" s="67">
+        <v>2</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="33">
+        <f>SQRT(($H$6-B9)^2+($I$6-C9)^2)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="75">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="B10" s="69">
+        <v>9</v>
+      </c>
+      <c r="C10" s="69">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D10" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="33">
+        <f>SQRT(($H$6-B10)^2+($I$6-C10)^2)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="90"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="76">
+        <v>4</v>
+      </c>
+      <c r="B11" s="31">
+        <v>8</v>
+      </c>
+      <c r="C11" s="31">
+        <v>7</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="33">
+        <f>SQRT(($H$7-B11)^2+($I$7-C11)^2)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="F11" s="48"/>
+      <c r="G11" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="76">
+        <v>5</v>
+      </c>
+      <c r="B12" s="31">
+        <v>9</v>
+      </c>
+      <c r="C12" s="31">
+        <v>8</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" ref="E12:E13" si="1">SQRT(($H$7-B12)^2+($I$7-C12)^2)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D12" si="0">SQRT(($E$21-B3)^2+($F$21-C3)^2)</f>
-        <v>4.0551750749984885</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E12" si="1">SQRT(($E$22-B3)^2+($F$22-C3)^2)</f>
-        <v>1.0540924479802518</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F12" si="2">SQRT(($E$23-B3)^2+($F$23-C3)^2)</f>
-        <v>5.2201532544552753</v>
-      </c>
-      <c r="G3" s="2">
-        <f>MIN(D3:F3)</f>
-        <v>1.0540924479802518</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f>INDEX($D$2:$F$2, MATCH(MIN(D3:F3), D3:F3, 0))</f>
-        <v>C2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="F12" s="48"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="77">
+        <v>6</v>
+      </c>
+      <c r="B13" s="78">
+        <v>7</v>
+      </c>
+      <c r="C13" s="78">
+        <v>9</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="33">
         <f t="shared" si="1"/>
-        <v>2.8480015605489055</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="2"/>
-        <v>5.2201532544552753</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G12" si="3">MIN(D4:F4)</f>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4:H12" si="4">INDEX($D$2:$F$2, MATCH(MIN(D4:F4), D4:F4, 0))</f>
-        <v>C1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H15"/>
+      <c r="I15" s="5"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="H16"/>
+      <c r="I16" s="5"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7726073470262564</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>6.103277807866851</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0138648319156189</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.3333330000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="2"/>
-        <v>4.2720018726587652</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.3333330000000001</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>3.282952465219227</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
-        <v>3.0413812651491097</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C2</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3333330000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>3.8005850719184013</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>3.905124837953327</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>1.3333330000000001</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4845411012598602</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>3.0731815580744657</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C3</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.8873009773992289</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4318768755433227</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C3</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.2704624928832375</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>4.0551750749984885</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C3</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>6.641619297196204</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>6.2271806533044316</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>2.0615528128088303</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>2.0615528128088303</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>C3</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H17"/>
       <c r="I17" s="5"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H18"/>
-      <c r="I18" s="5"/>
+      <c r="D18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1.6666669999999999</v>
+      </c>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D19" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="H19"/>
-      <c r="I19" s="5"/>
+      <c r="D19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="F19" s="16">
+        <v>2</v>
+      </c>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D20" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="15" t="s">
+      <c r="D20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="16">
         <v>6</v>
       </c>
-      <c r="H20"/>
-      <c r="I20" s="5"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="16">
-        <v>5</v>
-      </c>
-      <c r="F21" s="16">
-        <v>1.6666669999999999</v>
-      </c>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22"/>
+    </row>
+    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="61">
+        <f>SQRT(($E$18-B25)^2+($F$18-C25)^2)</f>
+        <v>1.2018506100547603</v>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="61">
+        <f>SQRT(($E$18-B26)^2+($F$18-C26)^2)</f>
+        <v>1.2018506100547603</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="61">
+        <f>SQRT(($E$18-B27)^2+($F$18-C27)^2)</f>
         <v>1.3333330000000001</v>
       </c>
-      <c r="F22" s="16">
-        <v>2</v>
-      </c>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="F23" s="16">
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="60">
+        <f>SQRT(($E$19-B28)^2+($F$19-C28)^2)</f>
+        <v>1.0540924479802518</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>4</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="60">
+        <f>SQRT(($E$19-B29)^2+($F$19-C29)^2)</f>
+        <v>0.3333330000000001</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>5</v>
+      </c>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="60">
+        <f>SQRT(($E$19-B30)^2+($F$19-C30)^2)</f>
+        <v>1.2018506100547603</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12">
+        <v>2</v>
+      </c>
+      <c r="C31" s="12">
+        <v>5</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="58">
+        <f>SQRT(($E$20-B31)^2+($F$20-C31)^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12">
+        <v>3</v>
+      </c>
+      <c r="C32" s="12">
+        <v>5</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="58">
+        <f>SQRT(($E$20-B32)^2+($F$20-C32)^2)</f>
+        <v>1.1180339887498949</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
+        <v>9</v>
+      </c>
+      <c r="B33" s="12">
+        <v>2</v>
+      </c>
+      <c r="C33" s="12">
         <v>6</v>
       </c>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
-        <v>2</v>
-      </c>
-      <c r="B28" s="8">
-        <v>4</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="37">
-        <f>SQRT(($E$21-B28)^2+($F$21-C28)^2)</f>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
-        <v>3</v>
-      </c>
-      <c r="B29" s="8">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="37">
-        <f t="shared" ref="E29:E30" si="5">SQRT(($E$21-B29)^2+($F$21-C29)^2)</f>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
-        <v>6</v>
-      </c>
-      <c r="B30" s="8">
-        <v>5</v>
-      </c>
-      <c r="C30" s="8">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="37">
-        <f t="shared" si="5"/>
-        <v>1.3333330000000001</v>
-      </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="10">
-        <v>1</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="35">
-        <f>SQRT(($E$22-B31)^2+($F$22-C31)^2)</f>
-        <v>1.0540924479802518</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="10">
-        <v>4</v>
-      </c>
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="35">
-        <f t="shared" ref="E32" si="6">SQRT(($E$22-B32)^2+($F$22-C32)^2)</f>
-        <v>0.3333330000000001</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="10">
-        <v>5</v>
-      </c>
-      <c r="B33" s="10">
-        <v>2</v>
-      </c>
-      <c r="C33" s="10">
-        <v>3</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="35">
-        <f>SQRT(($E$22-B33)^2+($F$22-C33)^2)</f>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="D33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="58">
+        <f>SQRT(($E$20-B33)^2+($F$20-C33)^2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B34" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="34">
-        <f>SQRT(($E$23-B34)^2+($F$23-C34)^2)</f>
+      <c r="E34" s="58">
+        <f>SQRT(($E$20-B34)^2+($F$20-C34)^2)</f>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8">
+        <v>4</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="61">
+        <f>SQRT(($E$18-B39)^2+($F$18-C39)^2)</f>
+        <v>1.2018506100547603</v>
+      </c>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <v>3</v>
+      </c>
+      <c r="B40" s="8">
+        <v>6</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="61">
+        <f>SQRT(($E$18-B40)^2+($F$18-C40)^2)</f>
+        <v>1.2018506100547603</v>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>6</v>
+      </c>
+      <c r="B41" s="8">
+        <v>5</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="61">
+        <f>SQRT(($E$18-B41)^2+($F$18-C41)^2)</f>
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59">
+        <f>SUM(E39:G41)/COUNT(E39:G41)</f>
+        <v>1.2456780733698403</v>
+      </c>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="10">
+        <v>1</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="60">
+        <f>SQRT(($E$19-B45)^2+($F$19-C45)^2)</f>
+        <v>1.0540924479802518</v>
+      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="10">
+        <v>4</v>
+      </c>
+      <c r="B46" s="10">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10">
+        <v>2</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="60">
+        <f>SQRT(($E$19-B46)^2+($F$19-C46)^2)</f>
+        <v>0.3333330000000001</v>
+      </c>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="10">
+        <v>5</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2</v>
+      </c>
+      <c r="C47" s="10">
+        <v>3</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="60">
+        <f>SQRT(($E$19-B47)^2+($F$19-C47)^2)</f>
+        <v>1.2018506100547603</v>
+      </c>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59">
+        <f>SUM(E45:G47)/COUNT(E45:G47)</f>
+        <v>0.86309201934500412</v>
+      </c>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="12">
+        <v>7</v>
+      </c>
+      <c r="B51" s="12">
+        <v>2</v>
+      </c>
+      <c r="C51" s="12">
+        <v>5</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="58">
+        <f>SQRT(($E$20-B51)^2+($F$20-C51)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
-        <v>8</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="12">
+        <v>8</v>
+      </c>
+      <c r="B52" s="12">
         <v>3</v>
       </c>
-      <c r="C35" s="12">
-        <v>5</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="34">
-        <f>SQRT(($E$23-B35)^2+($F$23-C35)^2)</f>
+      <c r="C52" s="12">
+        <v>5</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="58">
+        <f>SQRT(($E$20-B52)^2+($F$20-C52)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="12">
-        <v>9</v>
-      </c>
-      <c r="B36" s="12">
-        <v>2</v>
-      </c>
-      <c r="C36" s="12">
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="12">
+        <v>9</v>
+      </c>
+      <c r="B53" s="12">
+        <v>2</v>
+      </c>
+      <c r="C53" s="12">
         <v>6</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="34">
-        <f t="shared" ref="E36:E37" si="7">SQRT(($E$23-B36)^2+($F$23-C36)^2)</f>
+      <c r="D53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="58">
+        <f>SQRT(($E$20-B53)^2+($F$20-C53)^2)</f>
         <v>0.5</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="12">
-        <v>10</v>
-      </c>
-      <c r="B37" s="12">
-        <v>3</v>
-      </c>
-      <c r="C37" s="12">
-        <v>8</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="34">
-        <f t="shared" si="7"/>
-        <v>2.0615528128088303</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
-        <v>2</v>
-      </c>
-      <c r="B42" s="8">
-        <v>4</v>
-      </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="37">
-        <f>SQRT(($E$21-B42)^2+($F$21-C42)^2)</f>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
-        <v>3</v>
-      </c>
-      <c r="B43" s="8">
-        <v>6</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="37">
-        <f t="shared" ref="E43:E44" si="8">SQRT(($E$21-B43)^2+($F$21-C43)^2)</f>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
-        <v>6</v>
-      </c>
-      <c r="B44" s="8">
-        <v>5</v>
-      </c>
-      <c r="C44" s="8">
-        <v>3</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="37">
-        <f t="shared" si="8"/>
-        <v>1.3333330000000001</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33">
-        <f>SUM(E42:G44)/COUNT(E42:G44)</f>
-        <v>1.2456780733698403</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="10">
-        <v>1</v>
-      </c>
-      <c r="B48" s="10">
-        <v>1</v>
-      </c>
-      <c r="C48" s="10">
-        <v>1</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="35">
-        <f>SQRT(($E$22-B48)^2+($F$22-C48)^2)</f>
-        <v>1.0540924479802518</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="10">
-        <v>4</v>
-      </c>
-      <c r="B49" s="10">
-        <v>1</v>
-      </c>
-      <c r="C49" s="10">
-        <v>2</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="35">
-        <f t="shared" ref="E49" si="9">SQRT(($E$22-B49)^2+($F$22-C49)^2)</f>
-        <v>0.3333330000000001</v>
-      </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="10">
-        <v>5</v>
-      </c>
-      <c r="B50" s="10">
-        <v>2</v>
-      </c>
-      <c r="C50" s="10">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="35">
-        <f>SQRT(($E$22-B50)^2+($F$22-C50)^2)</f>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33">
-        <f>SUM(E48:G50)/COUNT(E48:G50)</f>
-        <v>0.86309201934500412</v>
-      </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B54" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="34">
-        <f>SQRT(($E$23-B54)^2+($F$23-C54)^2)</f>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
+      <c r="E54" s="58">
+        <f>SQRT(($E$20-B54)^2+($F$20-C54)^2)</f>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="12">
-        <v>8</v>
-      </c>
-      <c r="B55" s="12">
-        <v>3</v>
-      </c>
-      <c r="C55" s="12">
-        <v>5</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="34">
-        <f t="shared" ref="E55:E57" si="10">SQRT(($E$23-B55)^2+($F$23-C55)^2)</f>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="12">
-        <v>9</v>
-      </c>
-      <c r="B56" s="12">
-        <v>2</v>
-      </c>
-      <c r="C56" s="12">
+      <c r="A55" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59">
+        <f>SUM(E51:G54)/COUNT(E51:G54)</f>
+        <v>1.1994051975771551</v>
+      </c>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="54">
+        <f>E42</f>
+        <v>1.2456780733698403</v>
+      </c>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="54">
+        <f>E48</f>
+        <v>0.86309201934500412</v>
+      </c>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="54">
+        <f>E55</f>
+        <v>1.1994051975771551</v>
+      </c>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="34">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="12">
-        <v>10</v>
-      </c>
-      <c r="B57" s="12">
-        <v>3</v>
-      </c>
-      <c r="C57" s="12">
-        <v>8</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="34">
-        <f t="shared" si="10"/>
-        <v>2.0615528128088303</v>
-      </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33">
-        <f>SUM(E54:G57)/COUNT(E54:G57)</f>
-        <v>1.1994051975771551</v>
-      </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="30">
-        <f>E45</f>
-        <v>1.2456780733698403</v>
-      </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="30">
-        <f>E51</f>
-        <v>0.86309201934500412</v>
-      </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="30">
-        <f>E58</f>
-        <v>1.1994051975771551</v>
-      </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="16">
+        <v>5</v>
+      </c>
+      <c r="C65" s="16">
+        <v>1.6666669999999999</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>33</v>
+      <c r="A66" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="16">
+        <v>1.3333330000000001</v>
+      </c>
+      <c r="C66" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="15" t="s">
+      <c r="A67" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="C67" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="16">
-        <v>5</v>
-      </c>
-      <c r="C68" s="16">
-        <v>1.6666669999999999</v>
-      </c>
-    </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="16">
-        <v>1.3333330000000001</v>
-      </c>
-      <c r="C69" s="16">
-        <v>2</v>
+      <c r="A69" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B70" s="16">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C70" s="16">
-        <v>6</v>
+        <f>SQRT((B65-B66)^2+(C65-C66)^2)</f>
+        <v>3.6817873075149246</v>
+      </c>
+      <c r="D70" s="16">
+        <f>SQRT((B65-B67)^2+(C65-C67)^2)</f>
+        <v>5.0027767178726847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="16">
+        <f>SQRT((B65-B66)^2+(C65-C66)^2)</f>
+        <v>3.6817873075149246</v>
+      </c>
+      <c r="C71" s="16">
+        <v>0</v>
+      </c>
+      <c r="D71" s="16">
+        <f>SQRT((B67-B66)^2+(C67-C66)^2)</f>
+        <v>4.1666667600000125</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="16">
+        <f>D70</f>
+        <v>5.0027767178726847</v>
+      </c>
+      <c r="C72" s="16">
+        <f>D71</f>
+        <v>4.1666667600000125</v>
+      </c>
+      <c r="D72" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="53">
+        <f>C70</f>
+        <v>3.6817873075149246</v>
+      </c>
+      <c r="C75" s="53"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="53">
+        <f>D70</f>
+        <v>5.0027767178726847</v>
+      </c>
+      <c r="C76" s="53"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="53">
+        <f>D71</f>
+        <v>4.1666667600000125</v>
+      </c>
+      <c r="C77" s="53"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="E82" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="53">
+        <f>B75</f>
+        <v>3.6817873075149246</v>
+      </c>
+      <c r="C83" s="53"/>
+      <c r="E83" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="54">
+        <f>B58</f>
+        <v>1.2456780733698403</v>
+      </c>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="53">
+        <f t="shared" ref="B84:B85" si="2">B76</f>
+        <v>5.0027767178726847</v>
+      </c>
+      <c r="C84" s="53"/>
+      <c r="E84" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="54">
+        <f>B59</f>
+        <v>0.86309201934500412</v>
+      </c>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="53">
+        <f t="shared" si="2"/>
+        <v>4.1666667600000125</v>
+      </c>
+      <c r="C85" s="53"/>
+      <c r="E85" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="54">
+        <f>B60</f>
+        <v>1.1994051975771551</v>
+      </c>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="16">
+      <c r="B87" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="16">
         <v>0</v>
       </c>
-      <c r="C73" s="16">
-        <f>SQRT((B68-B69)^2+(C68-C69)^2)</f>
-        <v>3.6817873075149246</v>
-      </c>
-      <c r="D73" s="16">
-        <f>SQRT((B68-B70)^2+(C68-C70)^2)</f>
-        <v>5.0027767178726847</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="16">
-        <f>SQRT((B68-B69)^2+(C68-C69)^2)</f>
-        <v>3.6817873075149246</v>
-      </c>
-      <c r="C74" s="16">
+      <c r="C88" s="16">
+        <f>(F83+F84)/B83</f>
+        <v>0.57275717378095625</v>
+      </c>
+      <c r="D88" s="16">
+        <f>(F83+F85)/B84</f>
+        <v>0.48874523266485309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="16">
+        <f>C88</f>
+        <v>0.57275717378095625</v>
+      </c>
+      <c r="C89" s="16">
         <v>0</v>
       </c>
-      <c r="D74" s="16">
-        <f>SQRT((B70-B69)^2+(C70-C69)^2)</f>
-        <v>4.1666667600000125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="16">
-        <f>D73</f>
-        <v>5.0027767178726847</v>
-      </c>
-      <c r="C75" s="16">
-        <f>D74</f>
-        <v>4.1666667600000125</v>
-      </c>
-      <c r="D75" s="16">
+      <c r="D89" s="16">
+        <f>(F85+F84)/B85</f>
+        <v>0.49499932097333199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="16">
+        <f>D88</f>
+        <v>0.48874523266485309</v>
+      </c>
+      <c r="C90" s="16">
+        <f>D89</f>
+        <v>0.49499932097333199</v>
+      </c>
+      <c r="D90" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="31">
-        <f>C73</f>
-        <v>3.6817873075149246</v>
-      </c>
-      <c r="C78" s="31"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" s="31">
-        <f>D73</f>
-        <v>5.0027767178726847</v>
-      </c>
-      <c r="C79" s="31"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="31">
-        <f>D74</f>
-        <v>4.1666667600000125</v>
-      </c>
-      <c r="C80" s="31"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="E85" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" s="31">
-        <f>B78</f>
-        <v>3.6817873075149246</v>
-      </c>
-      <c r="C86" s="31"/>
-      <c r="E86" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="30">
-        <f>B61</f>
-        <v>1.2456780733698403</v>
-      </c>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="31">
-        <f t="shared" ref="B87:B88" si="11">B79</f>
-        <v>5.0027767178726847</v>
-      </c>
-      <c r="C87" s="31"/>
-      <c r="E87" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="30">
-        <f>B62</f>
-        <v>0.86309201934500412</v>
-      </c>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="31">
-        <f t="shared" si="11"/>
-        <v>4.1666667600000125</v>
-      </c>
-      <c r="C88" s="31"/>
-      <c r="E88" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="30">
-        <f>B63</f>
-        <v>1.1994051975771551</v>
-      </c>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="16">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="23">
+        <v>1</v>
+      </c>
+      <c r="C93" s="23">
+        <v>2</v>
+      </c>
+      <c r="D93" s="23">
+        <v>3</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="16">
+        <v>1</v>
+      </c>
+      <c r="B94" s="16">
         <v>0</v>
       </c>
-      <c r="C91" s="16">
-        <f>(F86+F87)/B86</f>
+      <c r="C94" s="16">
+        <f>C88</f>
         <v>0.57275717378095625</v>
       </c>
-      <c r="D91" s="16">
-        <f>(F86+F88)/B87</f>
+      <c r="D94" s="16">
+        <f>D88</f>
         <v>0.48874523266485309</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="16">
-        <f>C91</f>
+      <c r="F94" s="22">
+        <f>MAX(B94:D94)</f>
         <v>0.57275717378095625</v>
       </c>
-      <c r="C92" s="16">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="16">
+        <v>2</v>
+      </c>
+      <c r="B95" s="16">
+        <f>C94</f>
+        <v>0.57275717378095625</v>
+      </c>
+      <c r="C95" s="16">
         <v>0</v>
       </c>
-      <c r="D92" s="16">
-        <f>(F88+F87)/B88</f>
+      <c r="D95" s="16">
+        <f>D89</f>
         <v>0.49499932097333199</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="16">
-        <f>D91</f>
+      <c r="F95" s="22">
+        <f t="shared" ref="F95:F96" si="3">MAX(B95:D95)</f>
+        <v>0.57275717378095625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="16">
+        <v>3</v>
+      </c>
+      <c r="B96" s="16">
+        <f>D94</f>
         <v>0.48874523266485309</v>
       </c>
-      <c r="C93" s="16">
-        <f>D92</f>
+      <c r="C96" s="16">
+        <f>D95</f>
         <v>0.49499932097333199</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D96" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B96" s="23">
-        <v>1</v>
-      </c>
-      <c r="C96" s="23">
-        <v>2</v>
-      </c>
-      <c r="D96" s="23">
-        <v>3</v>
-      </c>
-      <c r="F96" s="20" t="s">
-        <v>43</v>
+      <c r="F96" s="22">
+        <f t="shared" si="3"/>
+        <v>0.49499932097333199</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="16">
-        <v>1</v>
-      </c>
-      <c r="B97" s="16">
-        <v>0</v>
-      </c>
-      <c r="C97" s="16">
-        <f>C91</f>
-        <v>0.57275717378095625</v>
-      </c>
-      <c r="D97" s="16">
-        <f>D91</f>
-        <v>0.48874523266485309</v>
-      </c>
-      <c r="F97" s="22">
-        <f>MAX(B97:D97)</f>
-        <v>0.57275717378095625</v>
-      </c>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="27"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="16">
-        <v>2</v>
-      </c>
-      <c r="B98" s="16">
-        <f>C97</f>
-        <v>0.57275717378095625</v>
-      </c>
-      <c r="C98" s="16">
-        <v>0</v>
-      </c>
-      <c r="D98" s="16">
-        <f>D92</f>
-        <v>0.49499932097333199</v>
-      </c>
-      <c r="F98" s="22">
-        <f t="shared" ref="F98:F99" si="12">MAX(B98:D98)</f>
-        <v>0.57275717378095625</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="16">
-        <v>3</v>
-      </c>
-      <c r="B99" s="16">
-        <f>D97</f>
-        <v>0.48874523266485309</v>
-      </c>
-      <c r="C99" s="16">
-        <f>D98</f>
-        <v>0.49499932097333199</v>
-      </c>
-      <c r="D99" s="16">
-        <v>0</v>
-      </c>
-      <c r="F99" s="22">
-        <f t="shared" si="12"/>
-        <v>0.49499932097333199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="27"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E101" s="28" t="s">
+      <c r="E98" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F101" s="28">
-        <f>SUM(F97:F99)/COUNT(F97:F99)</f>
+      <c r="F98" s="28">
+        <f>SUM(F94:F96)/COUNT(F94:F96)</f>
         <v>0.54683788951174817</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G98" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I12" xr:uid="{C48516C2-6FA2-46C2-8A1B-F3AAB85AA8FA}"/>
-  <mergeCells count="47">
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
+  <mergeCells count="49">
+    <mergeCell ref="G11:I12"/>
+    <mergeCell ref="G10:I10"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5936,7 +6216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48516C2-6FA2-46C2-8A1B-F3AAB85AA8FA}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -6371,11 +6651,11 @@
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
       <c r="H19"/>
       <c r="I19" s="5"/>
       <c r="J19"/>
@@ -6457,11 +6737,11 @@
       <c r="D27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="4"/>
@@ -6479,12 +6759,12 @@
       <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="61">
         <f>SQRT(($E$21-B28)^2+($F$21-C28)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
@@ -6499,12 +6779,12 @@
       <c r="D29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="61">
         <f t="shared" ref="E29:E30" si="5">SQRT(($E$21-B29)^2+($F$21-C29)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
@@ -6519,12 +6799,12 @@
       <c r="D30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="61">
         <f t="shared" si="5"/>
         <v>1.3333330000000001</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
@@ -6539,12 +6819,12 @@
       <c r="D31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="60">
         <f>SQRT(($E$22-B31)^2+($F$22-C31)^2)</f>
         <v>1.0540924479802518</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
@@ -6559,12 +6839,12 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="60">
         <f t="shared" ref="E32" si="6">SQRT(($E$22-B32)^2+($F$22-C32)^2)</f>
         <v>0.3333330000000001</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
@@ -6579,12 +6859,12 @@
       <c r="D33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="60">
         <f>SQRT(($E$22-B33)^2+($F$22-C33)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
@@ -6599,12 +6879,12 @@
       <c r="D34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="58">
         <f>SQRT(($E$23-B34)^2+($F$23-C34)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
@@ -6619,12 +6899,12 @@
       <c r="D35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="58">
         <f>SQRT(($E$23-B35)^2+($F$23-C35)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
@@ -6639,12 +6919,12 @@
       <c r="D36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="58">
         <f t="shared" ref="E36:E37" si="7">SQRT(($E$23-B36)^2+($F$23-C36)^2)</f>
         <v>0.5</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
@@ -6659,12 +6939,12 @@
       <c r="D37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="58">
         <f t="shared" si="7"/>
         <v>2.0615528128088303</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -6689,11 +6969,11 @@
       <c r="D41" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
@@ -6708,12 +6988,12 @@
       <c r="D42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="61">
         <f>SQRT(($E$21-B42)^2+($F$21-C42)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
@@ -6728,12 +7008,12 @@
       <c r="D43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="61">
         <f t="shared" ref="E43:E44" si="8">SQRT(($E$21-B43)^2+($F$21-C43)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
@@ -6748,26 +7028,26 @@
       <c r="D44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="61">
         <f t="shared" si="8"/>
         <v>1.3333330000000001</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33">
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59">
         <f>SUM(E42:G44)/COUNT(E42:G44)</f>
         <v>1.2456780733698403</v>
       </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
@@ -6782,11 +7062,11 @@
       <c r="D47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
@@ -6801,12 +7081,12 @@
       <c r="D48" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="60">
         <f>SQRT(($E$22-B48)^2+($F$22-C48)^2)</f>
         <v>1.0540924479802518</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
@@ -6821,12 +7101,12 @@
       <c r="D49" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="60">
         <f t="shared" ref="E49" si="9">SQRT(($E$22-B49)^2+($F$22-C49)^2)</f>
         <v>0.3333330000000001</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
@@ -6841,26 +7121,26 @@
       <c r="D50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="60">
         <f>SQRT(($E$22-B50)^2+($F$22-C50)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33">
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59">
         <f>SUM(E48:G50)/COUNT(E48:G50)</f>
         <v>0.86309201934500412</v>
       </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
@@ -6875,11 +7155,11 @@
       <c r="D53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
@@ -6894,12 +7174,12 @@
       <c r="D54" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="58">
         <f>SQRT(($E$23-B54)^2+($F$23-C54)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
@@ -6914,12 +7194,12 @@
       <c r="D55" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="58">
         <f t="shared" ref="E55:E57" si="10">SQRT(($E$23-B55)^2+($F$23-C55)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
@@ -6934,12 +7214,12 @@
       <c r="D56" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="58">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
@@ -6954,73 +7234,73 @@
       <c r="D57" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57" s="58">
         <f t="shared" si="10"/>
         <v>2.0615528128088303</v>
       </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33">
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59">
         <f>SUM(E54:G57)/COUNT(E54:G57)</f>
         <v>1.1994051975771551</v>
       </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="54">
         <f>E45</f>
         <v>1.2456780733698403</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="54">
         <f>E51</f>
         <v>0.86309201934500412</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63" s="54">
         <f>E58</f>
         <v>1.1994051975771551</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
@@ -7134,41 +7414,41 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="53">
         <f>C73</f>
         <v>3.6817873075149246</v>
       </c>
-      <c r="C78" s="31"/>
+      <c r="C78" s="53"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="31">
+      <c r="B79" s="53">
         <f>D73</f>
         <v>5.0027767178726847</v>
       </c>
-      <c r="C79" s="31"/>
+      <c r="C79" s="53"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="31">
+      <c r="B80" s="53">
         <f>D74</f>
         <v>4.1666667600000125</v>
       </c>
-      <c r="C80" s="31"/>
+      <c r="C80" s="53"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="24" t="s">
@@ -7181,80 +7461,80 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
       <c r="E85" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F85" s="29" t="s">
+      <c r="F85" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B86" s="31">
+      <c r="B86" s="53">
         <f>B78</f>
         <v>3.6817873075149246</v>
       </c>
-      <c r="C86" s="31"/>
+      <c r="C86" s="53"/>
       <c r="E86" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="30">
+      <c r="F86" s="54">
         <f>B61</f>
         <v>1.2456780733698403</v>
       </c>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B87" s="31">
+      <c r="B87" s="53">
         <f t="shared" ref="B87:B88" si="11">B79</f>
         <v>5.0027767178726847</v>
       </c>
-      <c r="C87" s="31"/>
+      <c r="C87" s="53"/>
       <c r="E87" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="30">
+      <c r="F87" s="54">
         <f>B62</f>
         <v>0.86309201934500412</v>
       </c>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="31">
+      <c r="B88" s="53">
         <f t="shared" si="11"/>
         <v>4.1666667600000125</v>
       </c>
-      <c r="C88" s="31"/>
+      <c r="C88" s="53"/>
       <c r="E88" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="30">
+      <c r="F88" s="54">
         <f>B63</f>
         <v>1.1994051975771551</v>
       </c>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
@@ -7423,23 +7703,20 @@
   </sheetData>
   <autoFilter ref="A2:I12" xr:uid="{C48516C2-6FA2-46C2-8A1B-F3AAB85AA8FA}"/>
   <mergeCells count="47">
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="B63:E63"/>
     <mergeCell ref="E56:G56"/>
     <mergeCell ref="E57:G57"/>
@@ -7456,20 +7733,23 @@
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="E58:G58"/>
     <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/pert13/21.230.0079-pert13-DBI.xlsx
+++ b/pert13/21.230.0079-pert13-DBI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah S1 SI STMIK\SEMESTER 5\1.1 Visualisasi Data dan Data Sciences\Teori\pert13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C718C1-ED9C-4C74-9EAB-7A07288156AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC171C-D20E-47B8-97B4-657F1E32621C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1790" windowWidth="14400" windowHeight="8290" firstSheet="3" activeTab="5" xr2:uid="{37BF5E51-D7F7-4509-B11D-29C970469DB2}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="62">
   <si>
     <t>DATA</t>
   </si>
@@ -220,6 +220,21 @@
   <si>
     <t>INTERASI 3</t>
   </si>
+  <si>
+    <t>Rata rata jarak terhadap C2</t>
+  </si>
+  <si>
+    <t>Rata rata jarak terhadap C3</t>
+  </si>
+  <si>
+    <t>Rata rata jarak terhadap C4</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>LANJUT SINI</t>
+  </si>
 </sst>
 </file>
 
@@ -352,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -481,37 +496,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -551,53 +536,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="double">
@@ -761,11 +703,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,140 +842,147 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="17" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="29" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4786,10 +4746,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878F28B1-A1F8-452B-B38F-4B7FB48241D4}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4822,90 +4782,90 @@
       <c r="H2"/>
     </row>
     <row r="3" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="73" t="s">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="29" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="88" t="s">
+      <c r="H3" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="66" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="67">
-        <v>2</v>
-      </c>
-      <c r="C4" s="67">
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
         <v>3</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="33">
         <f>SQRT(($H$4-B4)^2+($I$4-C4)^2)</f>
         <v>0.5</v>
       </c>
-      <c r="G4" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="65">
-        <v>2</v>
-      </c>
-      <c r="I4" s="85">
+      <c r="G4" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="56">
+        <v>2</v>
+      </c>
+      <c r="I4" s="63">
         <v>2.5</v>
       </c>
       <c r="J4" s="50"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="75">
-        <v>7</v>
-      </c>
-      <c r="B5" s="69">
-        <v>2</v>
-      </c>
-      <c r="C5" s="69">
-        <v>2</v>
-      </c>
-      <c r="D5" s="70" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="31">
+        <v>7</v>
+      </c>
+      <c r="B5" s="31">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="33">
         <f>SQRT(($H$4-B5)^2+($I$4-C5)^2)</f>
         <v>0.5</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="58" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="31">
         <v>4</v>
       </c>
-      <c r="I5" s="81">
+      <c r="I5" s="59">
         <v>5</v>
       </c>
       <c r="J5" s="50"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="76">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
       <c r="B6" s="31">
@@ -4914,26 +4874,26 @@
       <c r="C6" s="31">
         <v>5</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="33">
         <f>SQRT(($H$5-B6)^2+($I$5-C6)^2)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="58" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="31">
         <v>8.5</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="59">
         <v>1.5</v>
       </c>
       <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="76">
+      <c r="A7" s="31">
         <v>3</v>
       </c>
       <c r="B7" s="31">
@@ -4949,28 +4909,28 @@
         <f t="shared" ref="E7:E8" si="0">SQRT(($H$5-B7)^2+($I$5-C7)^2)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="78">
-        <v>8</v>
-      </c>
-      <c r="I7" s="83">
+      <c r="H7" s="57">
+        <v>8</v>
+      </c>
+      <c r="I7" s="61">
         <v>8</v>
       </c>
       <c r="J7" s="50"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="75">
-        <v>8</v>
-      </c>
-      <c r="B8" s="69">
-        <v>5</v>
-      </c>
-      <c r="C8" s="69">
-        <v>4</v>
-      </c>
-      <c r="D8" s="70" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>8</v>
+      </c>
+      <c r="B8" s="31">
+        <v>5</v>
+      </c>
+      <c r="C8" s="31">
+        <v>4</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="33">
@@ -4983,17 +4943,17 @@
       <c r="I8" s="27"/>
       <c r="J8" s="50"/>
     </row>
-    <row r="9" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="74">
-        <v>9</v>
-      </c>
-      <c r="B9" s="67">
-        <v>8</v>
-      </c>
-      <c r="C9" s="67">
-        <v>2</v>
-      </c>
-      <c r="D9" s="68" t="s">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="31">
+        <v>9</v>
+      </c>
+      <c r="B9" s="31">
+        <v>8</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="33">
@@ -5007,16 +4967,16 @@
       <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="75">
+      <c r="A10" s="31">
         <v>10</v>
       </c>
-      <c r="B10" s="69">
-        <v>9</v>
-      </c>
-      <c r="C10" s="69">
+      <c r="B10" s="31">
+        <v>9</v>
+      </c>
+      <c r="C10" s="31">
         <v>1</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="33">
@@ -5024,15 +4984,15 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="F10" s="48"/>
-      <c r="G10" s="89" t="s">
+      <c r="G10" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="90"/>
-      <c r="I10" s="91"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="50"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="76">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="31">
         <v>4</v>
       </c>
       <c r="B11" s="31">
@@ -5041,7 +5001,7 @@
       <c r="C11" s="31">
         <v>7</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="33">
@@ -5049,15 +5009,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="48"/>
-      <c r="G11" s="92" t="s">
+      <c r="G11" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="76">
+      <c r="A12" s="31">
         <v>5</v>
       </c>
       <c r="B12" s="31">
@@ -5074,22 +5034,22 @@
         <v>1</v>
       </c>
       <c r="F12" s="48"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="77">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="31">
         <v>6</v>
       </c>
-      <c r="B13" s="78">
-        <v>7</v>
-      </c>
-      <c r="C13" s="78">
-        <v>9</v>
-      </c>
-      <c r="D13" s="79" t="s">
+      <c r="B13" s="31">
+        <v>7</v>
+      </c>
+      <c r="C13" s="31">
+        <v>9</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="33">
@@ -5102,25 +5062,25 @@
       <c r="I13" s="27"/>
       <c r="J13" s="50"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="H15"/>
       <c r="I15" s="5"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D16" s="62" t="s">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
       <c r="H16"/>
       <c r="I16" s="5"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="D17" s="15" t="s">
         <v>4</v>
       </c>
@@ -5134,7 +5094,7 @@
       <c r="I17" s="5"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="D18" s="16" t="s">
         <v>7</v>
       </c>
@@ -5146,7 +5106,7 @@
       </c>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="D19" s="16" t="s">
         <v>8</v>
       </c>
@@ -5158,7 +5118,7 @@
       </c>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="D20" s="16" t="s">
         <v>9</v>
       </c>
@@ -5170,16 +5130,17 @@
       </c>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>55</v>
       </c>
       <c r="J22"/>
     </row>
-    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>4</v>
       </c>
@@ -5192,16 +5153,16 @@
       <c r="D24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>2</v>
       </c>
@@ -5214,14 +5175,14 @@
       <c r="D25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="81">
         <f>SQRT(($E$18-B25)^2+($F$18-C25)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>3</v>
       </c>
@@ -5234,14 +5195,14 @@
       <c r="D26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="81">
         <f>SQRT(($E$18-B26)^2+($F$18-C26)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>6</v>
       </c>
@@ -5254,14 +5215,14 @@
       <c r="D27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="81">
         <f>SQRT(($E$18-B27)^2+($F$18-C27)^2)</f>
         <v>1.3333330000000001</v>
       </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>1</v>
       </c>
@@ -5274,14 +5235,14 @@
       <c r="D28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="82">
         <f>SQRT(($E$19-B28)^2+($F$19-C28)^2)</f>
         <v>1.0540924479802518</v>
       </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -5294,14 +5255,14 @@
       <c r="D29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="82">
         <f>SQRT(($E$19-B29)^2+($F$19-C29)^2)</f>
         <v>0.3333330000000001</v>
       </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>5</v>
       </c>
@@ -5314,14 +5275,14 @@
       <c r="D30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="82">
         <f>SQRT(($E$19-B30)^2+($F$19-C30)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>7</v>
       </c>
@@ -5334,14 +5295,14 @@
       <c r="D31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="76">
         <f>SQRT(($E$20-B31)^2+($F$20-C31)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>8</v>
       </c>
@@ -5354,14 +5315,14 @@
       <c r="D32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="76">
         <f>SQRT(($E$20-B32)^2+($F$20-C32)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>9</v>
       </c>
@@ -5374,14 +5335,14 @@
       <c r="D33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="76">
         <f>SQRT(($E$20-B33)^2+($F$20-C33)^2)</f>
         <v>0.5</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>10</v>
       </c>
@@ -5394,12 +5355,12 @@
       <c r="D34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="76">
         <f>SQRT(($E$20-B34)^2+($F$20-C34)^2)</f>
         <v>2.0615528128088303</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -5410,8 +5371,10 @@
       <c r="A37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+    </row>
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>4</v>
       </c>
@@ -5424,739 +5387,848 @@
       <c r="D38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="57" t="s">
+      <c r="E38" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
-        <v>2</v>
-      </c>
-      <c r="B39" s="8">
-        <v>4</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="A39" s="31">
         <v>1</v>
       </c>
+      <c r="B39" s="31">
+        <v>2</v>
+      </c>
+      <c r="C39" s="31">
+        <v>3</v>
+      </c>
       <c r="D39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="61">
+      <c r="E39" s="99">
         <f>SQRT(($E$18-B39)^2+($F$18-C39)^2)</f>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+        <v>3.282952465219227</v>
+      </c>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+      <c r="A40" s="31">
+        <v>7</v>
+      </c>
+      <c r="B40" s="31">
+        <v>2</v>
+      </c>
+      <c r="C40" s="31">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="99">
+        <f>SQRT(($E$18-B40)^2+($F$18-C40)^2)</f>
+        <v>3.0184616759019818</v>
+      </c>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="98">
+        <f>SUM(E39:G40)/COUNT(E39:G40)</f>
+        <v>3.1507070705606042</v>
+      </c>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+    </row>
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="31">
+        <v>2</v>
+      </c>
+      <c r="B44" s="31">
+        <v>4</v>
+      </c>
+      <c r="C44" s="31">
+        <v>5</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="33">
+        <f>SQRT(($H$5-B44)^2+($I$5-C44)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="31">
         <v>3</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B45" s="31">
+        <v>3</v>
+      </c>
+      <c r="C45" s="31">
         <v>6</v>
       </c>
-      <c r="C40" s="8">
+      <c r="D45" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="33">
+        <f t="shared" ref="E45:E46" si="2">SQRT(($H$5-B45)^2+($I$5-C45)^2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="31">
+        <v>8</v>
+      </c>
+      <c r="B46" s="31">
+        <v>5</v>
+      </c>
+      <c r="C46" s="31">
+        <v>4</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="33">
+        <f t="shared" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="98">
+        <f>SUM(E44:G46)/COUNT(E44:G46)</f>
+        <v>0.94280904158206347</v>
+      </c>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+    </row>
+    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="31">
+        <v>9</v>
+      </c>
+      <c r="B50" s="31">
+        <v>8</v>
+      </c>
+      <c r="C50" s="31">
+        <v>2</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="33">
+        <f>SQRT(($H$6-B50)^2+($I$6-C50)^2)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="31">
+        <v>10</v>
+      </c>
+      <c r="B51" s="31">
+        <v>9</v>
+      </c>
+      <c r="C51" s="31">
         <v>1</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="61">
-        <f>SQRT(($E$18-B40)^2+($F$18-C40)^2)</f>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+      <c r="D51" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="33">
+        <f>SQRT(($H$6-B51)^2+($I$6-C51)^2)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="98">
+        <f>SUM(E50:G51)/COUNT(E50:G51)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+    </row>
+    <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="8">
-        <v>5</v>
-      </c>
-      <c r="C41" s="8">
-        <v>3</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="61">
-        <f>SQRT(($E$18-B41)^2+($F$18-C41)^2)</f>
-        <v>1.3333330000000001</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59">
-        <f>SUM(E39:G41)/COUNT(E39:G41)</f>
-        <v>1.2456780733698403</v>
-      </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="D54" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="31">
+        <v>4</v>
+      </c>
+      <c r="B55" s="31">
+        <v>8</v>
+      </c>
+      <c r="C55" s="31">
+        <v>7</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="33">
+        <f>SQRT(($H$7-B55)^2+($I$7-C55)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="31">
+        <v>5</v>
+      </c>
+      <c r="B56" s="31">
+        <v>9</v>
+      </c>
+      <c r="C56" s="31">
+        <v>8</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="33">
+        <f t="shared" ref="E56:E57" si="3">SQRT(($H$7-B56)^2+($I$7-C56)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="31">
         <v>6</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="10">
-        <v>1</v>
-      </c>
-      <c r="B45" s="10">
-        <v>1</v>
-      </c>
-      <c r="C45" s="10">
-        <v>1</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="60">
-        <f>SQRT(($E$19-B45)^2+($F$19-C45)^2)</f>
-        <v>1.0540924479802518</v>
-      </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="10">
-        <v>4</v>
-      </c>
-      <c r="B46" s="10">
-        <v>1</v>
-      </c>
-      <c r="C46" s="10">
-        <v>2</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="60">
-        <f>SQRT(($E$19-B46)^2+($F$19-C46)^2)</f>
-        <v>0.3333330000000001</v>
-      </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="10">
-        <v>5</v>
-      </c>
-      <c r="B47" s="10">
-        <v>2</v>
-      </c>
-      <c r="C47" s="10">
-        <v>3</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="60">
-        <f>SQRT(($E$19-B47)^2+($F$19-C47)^2)</f>
-        <v>1.2018506100547603</v>
-      </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59">
-        <f>SUM(E45:G47)/COUNT(E45:G47)</f>
-        <v>0.86309201934500412</v>
-      </c>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="18" t="s">
+      <c r="B57" s="31">
+        <v>7</v>
+      </c>
+      <c r="C57" s="31">
+        <v>9</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="33">
+        <f t="shared" si="3"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="98">
+        <f>SUM(E55:G57)/COUNT(E55:G57)</f>
+        <v>1.1380711874576983</v>
+      </c>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="97"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="92">
+        <f>E41</f>
+        <v>3.1507070705606042</v>
+      </c>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="94"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="92">
+        <f>E47</f>
+        <v>0.94280904158206347</v>
+      </c>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="94"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="92">
+        <f>E52</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="94"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="92">
+        <f>E58</f>
+        <v>1.1380711874576983</v>
+      </c>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="94"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="12">
-        <v>7</v>
-      </c>
-      <c r="B51" s="12">
-        <v>2</v>
-      </c>
-      <c r="C51" s="12">
-        <v>5</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="58">
-        <f>SQRT(($E$20-B51)^2+($F$20-C51)^2)</f>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="12">
-        <v>8</v>
-      </c>
-      <c r="B52" s="12">
-        <v>3</v>
-      </c>
-      <c r="C52" s="12">
-        <v>5</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="58">
-        <f>SQRT(($E$20-B52)^2+($F$20-C52)^2)</f>
-        <v>1.1180339887498949</v>
-      </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="12">
-        <v>9</v>
-      </c>
-      <c r="B53" s="12">
-        <v>2</v>
-      </c>
-      <c r="C53" s="12">
-        <v>6</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="58">
-        <f>SQRT(($E$20-B53)^2+($F$20-C53)^2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="12">
-        <v>10</v>
-      </c>
-      <c r="B54" s="12">
-        <v>3</v>
-      </c>
-      <c r="C54" s="12">
-        <v>8</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="58">
-        <f>SQRT(($E$20-B54)^2+($F$20-C54)^2)</f>
-        <v>2.0615528128088303</v>
-      </c>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59">
-        <f>SUM(E51:G54)/COUNT(E51:G54)</f>
-        <v>1.1994051975771551</v>
-      </c>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="20" t="s">
+    </row>
+    <row r="68" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="56">
+        <v>2</v>
+      </c>
+      <c r="C68" s="63">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="31">
+        <v>4</v>
+      </c>
+      <c r="C69" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="31">
+        <v>8.5</v>
+      </c>
+      <c r="C70" s="59">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="57">
+        <v>8</v>
+      </c>
+      <c r="C71" s="61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="16">
+        <v>0</v>
+      </c>
+      <c r="C74" s="16">
+        <f>SQRT((B68-B69)^2+(C68-C69)^2)</f>
+        <v>3.2015621187164243</v>
+      </c>
+      <c r="D74" s="16">
+        <f>SQRT((B68-B70)^2+(C68-C70)^2)</f>
+        <v>6.5764732189829527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="16">
+        <f>SQRT((B68-B69)^2+(C68-C69)^2)</f>
+        <v>3.2015621187164243</v>
+      </c>
+      <c r="C75" s="16">
+        <v>0</v>
+      </c>
+      <c r="D75" s="16">
+        <f>SQRT((B70-B69)^2+(C70-C69)^2)</f>
+        <v>5.7008771254956896</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="16">
+        <f>D74</f>
+        <v>6.5764732189829527</v>
+      </c>
+      <c r="C76" s="16">
+        <f>D75</f>
+        <v>5.7008771254956896</v>
+      </c>
+      <c r="D76" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="87"/>
+      <c r="C79" s="87"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" s="84">
+        <f>C74</f>
+        <v>3.2015621187164243</v>
+      </c>
+      <c r="C80" s="84"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="84">
+        <f>D74</f>
+        <v>6.5764732189829527</v>
+      </c>
+      <c r="C81" s="84"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="84">
+        <f>D75</f>
+        <v>5.7008771254956896</v>
+      </c>
+      <c r="C82" s="84"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="87"/>
+      <c r="C88" s="87"/>
+      <c r="E88" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="F88" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="54">
-        <f>E42</f>
-        <v>1.2456780733698403</v>
-      </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="54">
-        <f>E48</f>
-        <v>0.86309201934500412</v>
-      </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="54">
-        <f>E55</f>
-        <v>1.1994051975771551</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="16">
-        <v>5</v>
-      </c>
-      <c r="C65" s="16">
-        <v>1.6666669999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="16">
-        <v>1.3333330000000001</v>
-      </c>
-      <c r="C66" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="C67" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="16">
-        <v>0</v>
-      </c>
-      <c r="C70" s="16">
-        <f>SQRT((B65-B66)^2+(C65-C66)^2)</f>
-        <v>3.6817873075149246</v>
-      </c>
-      <c r="D70" s="16">
-        <f>SQRT((B65-B67)^2+(C65-C67)^2)</f>
-        <v>5.0027767178726847</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="16">
-        <f>SQRT((B65-B66)^2+(C65-C66)^2)</f>
-        <v>3.6817873075149246</v>
-      </c>
-      <c r="C71" s="16">
-        <v>0</v>
-      </c>
-      <c r="D71" s="16">
-        <f>SQRT((B67-B66)^2+(C67-C66)^2)</f>
-        <v>4.1666667600000125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="16">
-        <f>D70</f>
-        <v>5.0027767178726847</v>
-      </c>
-      <c r="C72" s="16">
-        <f>D71</f>
-        <v>4.1666667600000125</v>
-      </c>
-      <c r="D72" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="25" t="s">
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="53">
-        <f>C70</f>
-        <v>3.6817873075149246</v>
-      </c>
-      <c r="C75" s="53"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="25" t="s">
+      <c r="B89" s="84">
+        <f>B80</f>
+        <v>3.2015621187164243</v>
+      </c>
+      <c r="C89" s="84"/>
+      <c r="E89" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="86">
+        <f>B61</f>
+        <v>3.1507070705606042</v>
+      </c>
+      <c r="G89" s="86"/>
+      <c r="H89" s="86"/>
+      <c r="I89" s="86"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="53">
-        <f>D70</f>
-        <v>5.0027767178726847</v>
-      </c>
-      <c r="C76" s="53"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="25" t="s">
+      <c r="B90" s="84">
+        <f>B81</f>
+        <v>6.5764732189829527</v>
+      </c>
+      <c r="C90" s="84"/>
+      <c r="E90" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="86">
+        <f>B62</f>
+        <v>0.94280904158206347</v>
+      </c>
+      <c r="G90" s="86"/>
+      <c r="H90" s="86"/>
+      <c r="I90" s="86"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="53">
-        <f>D71</f>
-        <v>4.1666667600000125</v>
-      </c>
-      <c r="C77" s="53"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="E82" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F82" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" s="53">
-        <f>B75</f>
-        <v>3.6817873075149246</v>
-      </c>
-      <c r="C83" s="53"/>
-      <c r="E83" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="54">
-        <f>B58</f>
-        <v>1.2456780733698403</v>
-      </c>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="53">
-        <f t="shared" ref="B84:B85" si="2">B76</f>
-        <v>5.0027767178726847</v>
-      </c>
-      <c r="C84" s="53"/>
-      <c r="E84" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="54">
-        <f>B59</f>
-        <v>0.86309201934500412</v>
-      </c>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="53">
-        <f t="shared" si="2"/>
-        <v>4.1666667600000125</v>
-      </c>
-      <c r="C85" s="53"/>
-      <c r="E85" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="54">
-        <f>B60</f>
-        <v>1.1994051975771551</v>
-      </c>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="16">
-        <v>0</v>
-      </c>
-      <c r="C88" s="16">
-        <f>(F83+F84)/B83</f>
-        <v>0.57275717378095625</v>
-      </c>
-      <c r="D88" s="16">
-        <f>(F83+F85)/B84</f>
-        <v>0.48874523266485309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="16">
-        <f>C88</f>
-        <v>0.57275717378095625</v>
-      </c>
-      <c r="C89" s="16">
-        <v>0</v>
-      </c>
-      <c r="D89" s="16">
-        <f>(F85+F84)/B85</f>
-        <v>0.49499932097333199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="16">
-        <f>D88</f>
-        <v>0.48874523266485309</v>
-      </c>
-      <c r="C90" s="16">
-        <f>D89</f>
-        <v>0.49499932097333199</v>
-      </c>
-      <c r="D90" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="B91" s="84">
+        <f>B82</f>
+        <v>5.7008771254956896</v>
+      </c>
+      <c r="C91" s="84"/>
+      <c r="E91" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="86">
+        <f>B63</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="86"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B93" s="23">
-        <v>1</v>
-      </c>
-      <c r="C93" s="23">
-        <v>2</v>
-      </c>
-      <c r="D93" s="23">
-        <v>3</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="16">
-        <v>1</v>
+      <c r="A94" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="B94" s="16">
         <v>0</v>
       </c>
       <c r="C94" s="16">
-        <f>C88</f>
-        <v>0.57275717378095625</v>
+        <f>(F89+F90)/B89</f>
+        <v>1.2785996211698829</v>
       </c>
       <c r="D94" s="16">
-        <f>D88</f>
-        <v>0.48874523266485309</v>
-      </c>
-      <c r="F94" s="22">
-        <f>MAX(B94:D94)</f>
-        <v>0.57275717378095625</v>
+        <f>(F89+F91)/B90</f>
+        <v>0.58660831167252292</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="16">
-        <v>2</v>
+      <c r="A95" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="B95" s="16">
         <f>C94</f>
-        <v>0.57275717378095625</v>
+        <v>1.2785996211698829</v>
       </c>
       <c r="C95" s="16">
         <v>0</v>
       </c>
       <c r="D95" s="16">
-        <f>D89</f>
-        <v>0.49499932097333199</v>
-      </c>
-      <c r="F95" s="22">
-        <f t="shared" ref="F95:F96" si="3">MAX(B95:D95)</f>
-        <v>0.57275717378095625</v>
+        <f>(F91+F90)/B91</f>
+        <v>0.28941438070815312</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="16">
-        <v>3</v>
+      <c r="A96" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="B96" s="16">
         <f>D94</f>
-        <v>0.48874523266485309</v>
+        <v>0.58660831167252292</v>
       </c>
       <c r="C96" s="16">
         <f>D95</f>
-        <v>0.49499932097333199</v>
+        <v>0.28941438070815312</v>
       </c>
       <c r="D96" s="16">
         <v>0</v>
       </c>
-      <c r="F96" s="22">
-        <f t="shared" si="3"/>
-        <v>0.49499932097333199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="27"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E98" s="28" t="s">
+      <c r="A98" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="23">
+        <v>1</v>
+      </c>
+      <c r="C99" s="23">
+        <v>2</v>
+      </c>
+      <c r="D99" s="23">
+        <v>3</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="16">
+        <v>1</v>
+      </c>
+      <c r="B100" s="16">
+        <v>0</v>
+      </c>
+      <c r="C100" s="16">
+        <f>C94</f>
+        <v>1.2785996211698829</v>
+      </c>
+      <c r="D100" s="16">
+        <f>D94</f>
+        <v>0.58660831167252292</v>
+      </c>
+      <c r="E100" t="s">
+        <v>60</v>
+      </c>
+      <c r="F100" s="22">
+        <f>MAX(B100:D100)</f>
+        <v>1.2785996211698829</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="16">
+        <v>2</v>
+      </c>
+      <c r="B101" s="16">
+        <f>C100</f>
+        <v>1.2785996211698829</v>
+      </c>
+      <c r="C101" s="16">
+        <v>0</v>
+      </c>
+      <c r="D101" s="16">
+        <f>D95</f>
+        <v>0.28941438070815312</v>
+      </c>
+      <c r="F101" s="22">
+        <f t="shared" ref="F101:F102" si="4">MAX(B101:D101)</f>
+        <v>1.2785996211698829</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="16">
+        <v>3</v>
+      </c>
+      <c r="B102" s="16">
+        <f>D100</f>
+        <v>0.58660831167252292</v>
+      </c>
+      <c r="C102" s="16">
+        <f>D101</f>
+        <v>0.28941438070815312</v>
+      </c>
+      <c r="D102" s="16">
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <f t="shared" si="4"/>
+        <v>0.58660831167252292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="27"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E104" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F98" s="28">
-        <f>SUM(F94:F96)/COUNT(F94:F96)</f>
-        <v>0.54683788951174817</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="F104" s="28">
+        <f>SUM(F100:F102)/COUNT(F100:F102)</f>
+        <v>1.0479358513374295</v>
+      </c>
+      <c r="G104" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="35">
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="E34:G34"/>
@@ -6171,41 +6243,6 @@
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6216,7 +6253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48516C2-6FA2-46C2-8A1B-F3AAB85AA8FA}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -6651,11 +6688,11 @@
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
       <c r="H19"/>
       <c r="I19" s="5"/>
       <c r="J19"/>
@@ -6737,11 +6774,11 @@
       <c r="D27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="4"/>
@@ -6759,12 +6796,12 @@
       <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="81">
         <f>SQRT(($E$21-B28)^2+($F$21-C28)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
@@ -6779,12 +6816,12 @@
       <c r="D29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="81">
         <f t="shared" ref="E29:E30" si="5">SQRT(($E$21-B29)^2+($F$21-C29)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
@@ -6799,12 +6836,12 @@
       <c r="D30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="81">
         <f t="shared" si="5"/>
         <v>1.3333330000000001</v>
       </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
@@ -6819,12 +6856,12 @@
       <c r="D31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="82">
         <f>SQRT(($E$22-B31)^2+($F$22-C31)^2)</f>
         <v>1.0540924479802518</v>
       </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
@@ -6839,12 +6876,12 @@
       <c r="D32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="82">
         <f t="shared" ref="E32" si="6">SQRT(($E$22-B32)^2+($F$22-C32)^2)</f>
         <v>0.3333330000000001</v>
       </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
@@ -6859,12 +6896,12 @@
       <c r="D33" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="82">
         <f>SQRT(($E$22-B33)^2+($F$22-C33)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
@@ -6879,12 +6916,12 @@
       <c r="D34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="76">
         <f>SQRT(($E$23-B34)^2+($F$23-C34)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
@@ -6899,12 +6936,12 @@
       <c r="D35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="76">
         <f>SQRT(($E$23-B35)^2+($F$23-C35)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
@@ -6919,12 +6956,12 @@
       <c r="D36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="76">
         <f t="shared" ref="E36:E37" si="7">SQRT(($E$23-B36)^2+($F$23-C36)^2)</f>
         <v>0.5</v>
       </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
@@ -6939,12 +6976,12 @@
       <c r="D37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="76">
         <f t="shared" si="7"/>
         <v>2.0615528128088303</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -6969,11 +7006,11 @@
       <c r="D41" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
@@ -6988,12 +7025,12 @@
       <c r="D42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="81">
         <f>SQRT(($E$21-B42)^2+($F$21-C42)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
@@ -7008,12 +7045,12 @@
       <c r="D43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="81">
         <f t="shared" ref="E43:E44" si="8">SQRT(($E$21-B43)^2+($F$21-C43)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
@@ -7028,26 +7065,26 @@
       <c r="D44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="81">
         <f t="shared" si="8"/>
         <v>1.3333330000000001</v>
       </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59">
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83">
         <f>SUM(E42:G44)/COUNT(E42:G44)</f>
         <v>1.2456780733698403</v>
       </c>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
@@ -7062,11 +7099,11 @@
       <c r="D47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
@@ -7081,12 +7118,12 @@
       <c r="D48" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48" s="82">
         <f>SQRT(($E$22-B48)^2+($F$22-C48)^2)</f>
         <v>1.0540924479802518</v>
       </c>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
@@ -7101,12 +7138,12 @@
       <c r="D49" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="60">
+      <c r="E49" s="82">
         <f t="shared" ref="E49" si="9">SQRT(($E$22-B49)^2+($F$22-C49)^2)</f>
         <v>0.3333330000000001</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
@@ -7121,26 +7158,26 @@
       <c r="D50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="60">
+      <c r="E50" s="82">
         <f>SQRT(($E$22-B50)^2+($F$22-C50)^2)</f>
         <v>1.2018506100547603</v>
       </c>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59">
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83">
         <f>SUM(E48:G50)/COUNT(E48:G50)</f>
         <v>0.86309201934500412</v>
       </c>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
@@ -7155,11 +7192,11 @@
       <c r="D53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="57" t="s">
+      <c r="E53" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
@@ -7174,12 +7211,12 @@
       <c r="D54" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E54" s="76">
         <f>SQRT(($E$23-B54)^2+($F$23-C54)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
@@ -7194,12 +7231,12 @@
       <c r="D55" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="76">
         <f t="shared" ref="E55:E57" si="10">SQRT(($E$23-B55)^2+($F$23-C55)^2)</f>
         <v>1.1180339887498949</v>
       </c>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
@@ -7214,12 +7251,12 @@
       <c r="D56" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="58">
+      <c r="E56" s="76">
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
@@ -7234,73 +7271,73 @@
       <c r="D57" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="76">
         <f t="shared" si="10"/>
         <v>2.0615528128088303</v>
       </c>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59">
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83">
         <f>SUM(E54:G57)/COUNT(E54:G57)</f>
         <v>1.1994051975771551</v>
       </c>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="54">
+      <c r="B61" s="86">
         <f>E45</f>
         <v>1.2456780733698403</v>
       </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="54">
+      <c r="B62" s="86">
         <f>E51</f>
         <v>0.86309201934500412</v>
       </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="54">
+      <c r="B63" s="86">
         <f>E58</f>
         <v>1.1994051975771551</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
@@ -7414,41 +7451,41 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="87"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="53">
+      <c r="B78" s="84">
         <f>C73</f>
         <v>3.6817873075149246</v>
       </c>
-      <c r="C78" s="53"/>
+      <c r="C78" s="84"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="53">
+      <c r="B79" s="84">
         <f>D73</f>
         <v>5.0027767178726847</v>
       </c>
-      <c r="C79" s="53"/>
+      <c r="C79" s="84"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="53">
+      <c r="B80" s="84">
         <f>D74</f>
         <v>4.1666667600000125</v>
       </c>
-      <c r="C80" s="53"/>
+      <c r="C80" s="84"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="24" t="s">
@@ -7461,80 +7498,80 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="55" t="s">
+      <c r="A85" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="87"/>
       <c r="E85" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F85" s="56" t="s">
+      <c r="F85" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="85"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B86" s="53">
+      <c r="B86" s="84">
         <f>B78</f>
         <v>3.6817873075149246</v>
       </c>
-      <c r="C86" s="53"/>
+      <c r="C86" s="84"/>
       <c r="E86" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="54">
+      <c r="F86" s="86">
         <f>B61</f>
         <v>1.2456780733698403</v>
       </c>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="86"/>
+      <c r="I86" s="86"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B87" s="53">
+      <c r="B87" s="84">
         <f t="shared" ref="B87:B88" si="11">B79</f>
         <v>5.0027767178726847</v>
       </c>
-      <c r="C87" s="53"/>
+      <c r="C87" s="84"/>
       <c r="E87" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="54">
+      <c r="F87" s="86">
         <f>B62</f>
         <v>0.86309201934500412</v>
       </c>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="54"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="86"/>
+      <c r="I87" s="86"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="53">
+      <c r="B88" s="84">
         <f t="shared" si="11"/>
         <v>4.1666667600000125</v>
       </c>
-      <c r="C88" s="53"/>
+      <c r="C88" s="84"/>
       <c r="E88" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="54">
+      <c r="F88" s="86">
         <f>B63</f>
         <v>1.1994051975771551</v>
       </c>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
+      <c r="G88" s="86"/>
+      <c r="H88" s="86"/>
+      <c r="I88" s="86"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
@@ -7703,21 +7740,26 @@
   </sheetData>
   <autoFilter ref="A2:I12" xr:uid="{C48516C2-6FA2-46C2-8A1B-F3AAB85AA8FA}"/>
   <mergeCells count="47">
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E47:G47"/>
     <mergeCell ref="E56:G56"/>
     <mergeCell ref="E57:G57"/>
     <mergeCell ref="A45:D45"/>
@@ -7730,26 +7772,21 @@
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B86:C86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
